--- a/Data/MASTER_sheet_all_avg_rel_prop_Exp_data.xlsx
+++ b/Data/MASTER_sheet_all_avg_rel_prop_Exp_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1280" windowWidth="23920" windowHeight="12800" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="23920" windowHeight="12800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2812,6 +2812,16 @@
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2919,6 +2929,16 @@
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3026,6 +3046,16 @@
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3133,6 +3163,16 @@
           <c:marker>
             <c:symbol val="triangle"/>
             <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3240,6 +3280,16 @@
           <c:marker>
             <c:symbol val="triangle"/>
             <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3327,6 +3377,123 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.358168587931489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>A picea 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$38:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.963267233035347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.940029015436816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.882105925745488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.755179557266685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.626895111136021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.599862898827526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.548945765276757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.502361546139071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.444007320685247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.368278324002837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37907827485336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,6 +3515,8 @@
         <c:axId val="-2144662312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3389,6 +3558,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3421,6 +3591,626 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2144662312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Proportion Protein Conc of Native A picea and A rudis Samples</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A picea 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$38:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.963267233035347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.940029015436816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.882105925745488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.755179557266685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.626895111136021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.599862898827526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.548945765276757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.502361546139071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.444007320685247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.368278324002837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37907827485336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>A picea 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$86:$I$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9938440770598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.897014377374003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.858772123828405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81514253278222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.777609742719342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.770124179034316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.739401273149112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69712424768818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59754356715102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.430419067289595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.353355406334954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>A rudis 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$134:$I$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.993753170647844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.891959144033955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.868873926810019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.808088072254511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.721890141331452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.669062022572575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.562241562538909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.542555947918081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.464832469713834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.394966690734221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.356147507607494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A rudis 2 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$158:$I$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.914403596318337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.977995573435579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.891996245731023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.788914986471232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.711327716160206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.673491349269749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.644254018459026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.535232510522937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.450641588599957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.424013705379844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.358168587931489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2146529704"/>
+        <c:axId val="-2141750856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2146529704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141750856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2141750856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rel .Proportion Protein Conc.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146529704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3572,10 +4362,10 @@
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3589,6 +4379,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4064,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H54" workbookViewId="0">
-      <selection activeCell="I158" activeCellId="6" sqref="G2:G13 I14:I25 I62:I73 I110:I121 I134:I144 I144:I145 I158:I169"/>
+    <sheetView tabSelected="1" topLeftCell="E23" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/MASTER_sheet_all_avg_rel_prop_Exp_data.xlsx
+++ b/Data/MASTER_sheet_all_avg_rel_prop_Exp_data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="23920" windowHeight="12800" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="920" windowWidth="25300" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="22">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -82,6 +83,9 @@
   </si>
   <si>
     <t>Yates 2</t>
+  </si>
+  <si>
+    <t>Lex 13</t>
   </si>
 </sst>
 </file>
@@ -867,6 +871,7 @@
         <c:axId val="2134696648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -906,6 +911,7 @@
         <c:axId val="2095669576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1430,6 +1436,7 @@
         <c:axId val="2095916184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1469,6 +1476,7 @@
         <c:axId val="2095887112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2096,6 +2104,7 @@
         <c:axId val="2095319240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2136,6 +2145,7 @@
         <c:axId val="2095325192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2186,7 +2196,6 @@
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2646,6 +2655,212 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Native 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$122:$G$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$182:$I$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966325058664451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.910801008967547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.862691972545333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.773368287391691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.697272765191243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.609806184395665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.591613408812134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.526504447108313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.405313199282404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.276742978834926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.260521259065035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Total 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$122:$G$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$170:$I$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.996210529239279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98582152741626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.976480739311163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.972669553191704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.965539985186875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.978701551142989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.978086331765069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.925477095239533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.888817653511916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.923395604648225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.882088317028444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2661,6 +2876,7 @@
         <c:axId val="2095219208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2701,6 +2917,7 @@
         <c:axId val="-2145333832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3494,6 +3711,123 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.37907827485336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>A rudis 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$182:$I$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966325058664451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.910801008967547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.862691972545333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.773368287391691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.697272765191243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.609806184395665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.591613408812134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.526504447108313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.405313199282404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.276742978834926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.260521259065035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4124,6 +4458,123 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>A rudis 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$182:$I$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966325058664451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.910801008967547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.862691972545333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.773368287391691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.697272765191243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.609806184395665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.591613408812134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.526504447108313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.405313199282404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.276742978834926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.260521259065035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4139,6 +4590,7 @@
         <c:axId val="-2146529704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4179,6 +4631,7 @@
         <c:axId val="-2141750856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4211,6 +4664,864 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2146529704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rel.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Proportion Native Pogo and A rudis Samples</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pogo 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.986066083105599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.975961096933549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.843330327646264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.805162528925382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.732376110072009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6208680397881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.599312996577699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.491317369753482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40992362766743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.416278804932793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.411542799109428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pogo 2 </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$62:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.966324848250568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.950059099511516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89029557762471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.805510724090273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.738081798453533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.690360510175321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.615200418043149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.556859756216255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.430620473468544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.427226966103817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.409573297012033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pogo 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$110:$I$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.927823246080913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.968409891991591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.874234874293719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.770436548138694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.709151535282979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.647241892696849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6014829127359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.516332546482923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.460237842746788</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.440878653818431</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.417016670746666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>A rudis 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$134:$I$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.993753170647844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.891959144033955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.868873926810019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.808088072254511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.721890141331452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.669062022572575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.562241562538909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.542555947918081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.464832469713834</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.394966690734221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.356147507607494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>A rudis 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$158:$I$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.914403596318337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.977995573435579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.891996245731023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.788914986471232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.711327716160206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.673491349269749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.644254018459026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.535232510522937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.450641588599957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.424013705379844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.358168587931489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>A picea 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$38:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.963267233035347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.940029015436816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.882105925745488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.755179557266685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.626895111136021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.599862898827526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.548945765276757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.502361546139071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.444007320685247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.368278324002837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37907827485336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2136915592"/>
+        <c:axId val="-2136525064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2136915592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.0"/>
+          <c:min val="25.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136525064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2136525064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Relative Proportion of Protein Concentration</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136915592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4303,9 +5614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>260</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4418,146 +5729,40 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.64645</cdr:x>
-      <cdr:y>0.50031</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.68308</cdr:x>
-      <cdr:y>0.59702</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="Double Bracket 1"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5467814" y="2907055"/>
-          <a:ext cx="309824" cy="561935"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bracketPair">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.54585</cdr:x>
-      <cdr:y>0.34904</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.58078</cdr:x>
-      <cdr:y>0.51643</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="Double Bracket 2"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4616906" y="2028100"/>
-          <a:ext cx="295444" cy="972621"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bracketPair">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.59565</cdr:x>
-      <cdr:y>0.46807</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.63057</cdr:x>
-      <cdr:y>0.59082</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="Double Bracket 3"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5038162" y="2719725"/>
-          <a:ext cx="295360" cy="713240"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bracketPair">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4884,11 +6089,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -4920,6 +6136,9 @@
       </c>
     </row>
     <row r="2" spans="1:9">
+      <c r="A2">
+        <v>20160407</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -4946,6 +6165,9 @@
       </c>
     </row>
     <row r="3" spans="1:9">
+      <c r="A3">
+        <v>20160407</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -4972,6 +6194,9 @@
       </c>
     </row>
     <row r="4" spans="1:9">
+      <c r="A4">
+        <v>20160407</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -4998,6 +6223,9 @@
       </c>
     </row>
     <row r="5" spans="1:9">
+      <c r="A5">
+        <v>20160407</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -5024,6 +6252,9 @@
       </c>
     </row>
     <row r="6" spans="1:9">
+      <c r="A6">
+        <v>20160407</v>
+      </c>
       <c r="B6">
         <v>1</v>
       </c>
@@ -5050,6 +6281,9 @@
       </c>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7">
+        <v>20160407</v>
+      </c>
       <c r="B7">
         <v>1</v>
       </c>
@@ -5076,6 +6310,9 @@
       </c>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8">
+        <v>20160407</v>
+      </c>
       <c r="B8">
         <v>1</v>
       </c>
@@ -5102,6 +6339,9 @@
       </c>
     </row>
     <row r="9" spans="1:9">
+      <c r="A9">
+        <v>20160407</v>
+      </c>
       <c r="B9">
         <v>1</v>
       </c>
@@ -5128,6 +6368,9 @@
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10">
+        <v>20160407</v>
+      </c>
       <c r="B10">
         <v>1</v>
       </c>
@@ -5154,6 +6397,9 @@
       </c>
     </row>
     <row r="11" spans="1:9">
+      <c r="A11">
+        <v>20160407</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
@@ -5180,6 +6426,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
+      <c r="A12">
+        <v>20160407</v>
+      </c>
       <c r="B12">
         <v>1</v>
       </c>
@@ -5206,6 +6455,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
+      <c r="A13">
+        <v>20160407</v>
+      </c>
       <c r="B13">
         <v>1</v>
       </c>
@@ -5232,6 +6484,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
+      <c r="A14">
+        <v>20160407</v>
+      </c>
       <c r="B14">
         <v>1</v>
       </c>
@@ -5258,6 +6513,9 @@
       </c>
     </row>
     <row r="15" spans="1:9">
+      <c r="A15">
+        <v>20160407</v>
+      </c>
       <c r="B15">
         <v>1</v>
       </c>
@@ -5284,6 +6542,9 @@
       </c>
     </row>
     <row r="16" spans="1:9">
+      <c r="A16">
+        <v>20160407</v>
+      </c>
       <c r="B16">
         <v>1</v>
       </c>
@@ -5309,7 +6570,10 @@
         <v>0.97596109693354927</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>20160407</v>
+      </c>
       <c r="B17">
         <v>1</v>
       </c>
@@ -5335,7 +6599,10 @@
         <v>0.84333032764626448</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>20160407</v>
+      </c>
       <c r="B18">
         <v>1</v>
       </c>
@@ -5361,7 +6628,10 @@
         <v>0.80516252892538176</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>20160407</v>
+      </c>
       <c r="B19">
         <v>1</v>
       </c>
@@ -5387,7 +6657,10 @@
         <v>0.73237611007200942</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>20160407</v>
+      </c>
       <c r="B20">
         <v>1</v>
       </c>
@@ -5413,7 +6686,10 @@
         <v>0.62086803978810046</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20160407</v>
+      </c>
       <c r="B21">
         <v>1</v>
       </c>
@@ -5439,7 +6715,10 @@
         <v>0.59931299657769899</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>20160407</v>
+      </c>
       <c r="B22">
         <v>1</v>
       </c>
@@ -5465,7 +6744,10 @@
         <v>0.49131736975348195</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>20160407</v>
+      </c>
       <c r="B23">
         <v>1</v>
       </c>
@@ -5491,7 +6773,10 @@
         <v>0.40992362766742957</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>20160407</v>
+      </c>
       <c r="B24">
         <v>1</v>
       </c>
@@ -5517,7 +6802,10 @@
         <v>0.41627880493279307</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>20160407</v>
+      </c>
       <c r="B25">
         <v>1</v>
       </c>
@@ -5543,7 +6831,10 @@
         <v>0.41154279910942754</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>20160412</v>
+      </c>
       <c r="B26">
         <v>1</v>
       </c>
@@ -5569,7 +6860,10 @@
         <v>0.97504354796282533</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>20160412</v>
+      </c>
       <c r="B27">
         <v>1</v>
       </c>
@@ -5595,7 +6889,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>20160412</v>
+      </c>
       <c r="B28">
         <v>1</v>
       </c>
@@ -5621,7 +6918,10 @@
         <v>0.93106890830797784</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>20160412</v>
+      </c>
       <c r="B29">
         <v>1</v>
       </c>
@@ -5647,7 +6947,10 @@
         <v>0.89838463466314278</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>20160412</v>
+      </c>
       <c r="B30">
         <v>1</v>
       </c>
@@ -5673,7 +6976,10 @@
         <v>0.95372834770433357</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>20160412</v>
+      </c>
       <c r="B31">
         <v>1</v>
       </c>
@@ -5699,7 +7005,10 @@
         <v>0.78978916779377006</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>20160412</v>
+      </c>
       <c r="B32">
         <v>1</v>
       </c>
@@ -5725,7 +7034,10 @@
         <v>0.91416753486426083</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>20160412</v>
+      </c>
       <c r="B33">
         <v>1</v>
       </c>
@@ -5751,7 +7063,10 @@
         <v>0.82746514609538913</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>20160412</v>
+      </c>
       <c r="B34">
         <v>1</v>
       </c>
@@ -5777,7 +7092,10 @@
         <v>0.89268870611287043</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>20160412</v>
+      </c>
       <c r="B35">
         <v>1</v>
       </c>
@@ -5803,7 +7121,10 @@
         <v>0.87197623865733509</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>20160412</v>
+      </c>
       <c r="B36">
         <v>1</v>
       </c>
@@ -5829,7 +7150,10 @@
         <v>0.89716259908326623</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>20160412</v>
+      </c>
       <c r="B37">
         <v>1</v>
       </c>
@@ -5855,7 +7179,10 @@
         <v>0.87562163292950923</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>20160412</v>
+      </c>
       <c r="B38">
         <v>1</v>
       </c>
@@ -5881,7 +7208,10 @@
         <v>0.96326723303534667</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>20160412</v>
+      </c>
       <c r="B39">
         <v>1</v>
       </c>
@@ -5907,7 +7237,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>20160412</v>
+      </c>
       <c r="B40">
         <v>1</v>
       </c>
@@ -5933,7 +7266,10 @@
         <v>0.94002901543681605</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>20160412</v>
+      </c>
       <c r="B41">
         <v>1</v>
       </c>
@@ -5959,7 +7295,10 @@
         <v>0.88210592574548774</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>20160412</v>
+      </c>
       <c r="B42">
         <v>1</v>
       </c>
@@ -5985,7 +7324,10 @@
         <v>0.75517955726668551</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>20160412</v>
+      </c>
       <c r="B43">
         <v>1</v>
       </c>
@@ -6011,7 +7353,10 @@
         <v>0.62689511113602125</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>20160412</v>
+      </c>
       <c r="B44">
         <v>1</v>
       </c>
@@ -6037,7 +7382,10 @@
         <v>0.59986289882752641</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>20160412</v>
+      </c>
       <c r="B45">
         <v>1</v>
       </c>
@@ -6063,7 +7411,10 @@
         <v>0.54894576527675687</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>20160412</v>
+      </c>
       <c r="B46">
         <v>1</v>
       </c>
@@ -6089,7 +7440,10 @@
         <v>0.50236154613907147</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>20160412</v>
+      </c>
       <c r="B47">
         <v>1</v>
       </c>
@@ -6115,7 +7469,10 @@
         <v>0.44400732068524723</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>20160412</v>
+      </c>
       <c r="B48">
         <v>1</v>
       </c>
@@ -6141,7 +7498,10 @@
         <v>0.36827832400283694</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>20160412</v>
+      </c>
       <c r="B49">
         <v>1</v>
       </c>
@@ -6167,7 +7527,10 @@
         <v>0.37907827485335993</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>20160419</v>
+      </c>
       <c r="B50">
         <v>2</v>
       </c>
@@ -6193,7 +7556,10 @@
         <v>0.95030126858599384</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>20160419</v>
+      </c>
       <c r="B51">
         <v>2</v>
       </c>
@@ -6219,7 +7585,10 @@
         <v>0.97975740540614986</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>20160419</v>
+      </c>
       <c r="B52">
         <v>2</v>
       </c>
@@ -6245,7 +7614,10 @@
         <v>0.9474349761067955</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>20160419</v>
+      </c>
       <c r="B53">
         <v>2</v>
       </c>
@@ -6271,7 +7643,10 @@
         <v>0.98003563845284769</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>20160419</v>
+      </c>
       <c r="B54">
         <v>2</v>
       </c>
@@ -6297,7 +7672,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>20160419</v>
+      </c>
       <c r="B55">
         <v>2</v>
       </c>
@@ -6323,7 +7701,10 @@
         <v>0.96554401066113882</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>20160419</v>
+      </c>
       <c r="B56">
         <v>2</v>
       </c>
@@ -6349,7 +7730,10 @@
         <v>0.97062455651051871</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>20160419</v>
+      </c>
       <c r="B57">
         <v>2</v>
       </c>
@@ -6375,7 +7759,10 @@
         <v>0.94866130639950264</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>20160419</v>
+      </c>
       <c r="B58">
         <v>2</v>
       </c>
@@ -6401,7 +7788,10 @@
         <v>0.95837841416155845</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>20160419</v>
+      </c>
       <c r="B59">
         <v>2</v>
       </c>
@@ -6427,7 +7817,10 @@
         <v>0.94559126011738759</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>20160419</v>
+      </c>
       <c r="B60">
         <v>2</v>
       </c>
@@ -6453,7 +7846,10 @@
         <v>0.91307452386397825</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>20160419</v>
+      </c>
       <c r="B61">
         <v>2</v>
       </c>
@@ -6479,7 +7875,10 @@
         <v>0.89847439200877688</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>20160419</v>
+      </c>
       <c r="B62">
         <v>2</v>
       </c>
@@ -6505,7 +7904,10 @@
         <v>0.96632484825056764</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>20160419</v>
+      </c>
       <c r="B63">
         <v>2</v>
       </c>
@@ -6531,7 +7933,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>20160419</v>
+      </c>
       <c r="B64">
         <v>2</v>
       </c>
@@ -6557,7 +7962,10 @@
         <v>0.95005909951151613</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>20160419</v>
+      </c>
       <c r="B65">
         <v>2</v>
       </c>
@@ -6583,7 +7991,10 @@
         <v>0.89029557762471023</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>20160419</v>
+      </c>
       <c r="B66">
         <v>2</v>
       </c>
@@ -6609,7 +8020,10 @@
         <v>0.80551072409027347</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>20160419</v>
+      </c>
       <c r="B67">
         <v>2</v>
       </c>
@@ -6635,7 +8049,10 @@
         <v>0.73808179845353339</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>20160419</v>
+      </c>
       <c r="B68">
         <v>2</v>
       </c>
@@ -6661,7 +8078,10 @@
         <v>0.69036051017532085</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>20160419</v>
+      </c>
       <c r="B69">
         <v>2</v>
       </c>
@@ -6687,7 +8107,10 @@
         <v>0.61520041804314884</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>20160419</v>
+      </c>
       <c r="B70">
         <v>2</v>
       </c>
@@ -6713,7 +8136,10 @@
         <v>0.55685975621625505</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>20160419</v>
+      </c>
       <c r="B71">
         <v>2</v>
       </c>
@@ -6739,7 +8165,10 @@
         <v>0.43062047346854382</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>20160419</v>
+      </c>
       <c r="B72">
         <v>2</v>
       </c>
@@ -6765,7 +8194,10 @@
         <v>0.4272269661038175</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>20160419</v>
+      </c>
       <c r="B73">
         <v>2</v>
       </c>
@@ -6791,7 +8223,10 @@
         <v>0.40957329701203332</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>20160422</v>
+      </c>
       <c r="B74">
         <v>2</v>
       </c>
@@ -6817,7 +8252,10 @@
         <v>0.95713089613919045</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>20160422</v>
+      </c>
       <c r="B75">
         <v>2</v>
       </c>
@@ -6843,7 +8281,10 @@
         <v>0.91151882361017433</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>20160422</v>
+      </c>
       <c r="B76">
         <v>2</v>
       </c>
@@ -6869,7 +8310,10 @@
         <v>0.95493849102054496</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>20160422</v>
+      </c>
       <c r="B77">
         <v>2</v>
       </c>
@@ -6895,7 +8339,10 @@
         <v>0.94938065540306238</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>20160422</v>
+      </c>
       <c r="B78">
         <v>2</v>
       </c>
@@ -6921,7 +8368,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>20160422</v>
+      </c>
       <c r="B79">
         <v>2</v>
       </c>
@@ -6947,7 +8397,10 @@
         <v>0.91424898847490266</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>20160422</v>
+      </c>
       <c r="B80">
         <v>2</v>
       </c>
@@ -6973,7 +8426,10 @@
         <v>0.94825687542086357</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>20160422</v>
+      </c>
       <c r="B81">
         <v>2</v>
       </c>
@@ -6999,7 +8455,10 @@
         <v>0.93655419904182269</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>20160422</v>
+      </c>
       <c r="B82">
         <v>2</v>
       </c>
@@ -7025,7 +8484,10 @@
         <v>0.97218816902951011</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>20160422</v>
+      </c>
       <c r="B83">
         <v>2</v>
       </c>
@@ -7051,7 +8513,10 @@
         <v>0.88538921543512317</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>20160422</v>
+      </c>
       <c r="B84">
         <v>2</v>
       </c>
@@ -7077,7 +8542,10 @@
         <v>0.94653722612295033</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>20160422</v>
+      </c>
       <c r="B85">
         <v>2</v>
       </c>
@@ -7103,7 +8571,10 @@
         <v>0.84129488607224923</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>20160422</v>
+      </c>
       <c r="B86">
         <v>2</v>
       </c>
@@ -7129,7 +8600,10 @@
         <v>0.99384407705979982</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>20160422</v>
+      </c>
       <c r="B87">
         <v>2</v>
       </c>
@@ -7155,7 +8629,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>20160422</v>
+      </c>
       <c r="B88">
         <v>2</v>
       </c>
@@ -7181,7 +8658,10 @@
         <v>0.89701437737400302</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>20160422</v>
+      </c>
       <c r="B89">
         <v>2</v>
       </c>
@@ -7207,7 +8687,10 @@
         <v>0.85877212382840495</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>20160422</v>
+      </c>
       <c r="B90">
         <v>2</v>
       </c>
@@ -7233,7 +8716,10 @@
         <v>0.81514253278222026</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>20160422</v>
+      </c>
       <c r="B91">
         <v>2</v>
       </c>
@@ -7259,7 +8745,10 @@
         <v>0.77760974271934191</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>20160422</v>
+      </c>
       <c r="B92">
         <v>2</v>
       </c>
@@ -7285,7 +8774,10 @@
         <v>0.7701241790343164</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>20160422</v>
+      </c>
       <c r="B93">
         <v>2</v>
       </c>
@@ -7311,7 +8803,10 @@
         <v>0.73940127314911164</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>20160422</v>
+      </c>
       <c r="B94">
         <v>2</v>
       </c>
@@ -7337,7 +8832,10 @@
         <v>0.6971242476881806</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>20160422</v>
+      </c>
       <c r="B95">
         <v>2</v>
       </c>
@@ -7363,7 +8861,10 @@
         <v>0.59754356715102031</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>20160422</v>
+      </c>
       <c r="B96">
         <v>2</v>
       </c>
@@ -7389,7 +8890,10 @@
         <v>0.43041906728959484</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>20160422</v>
+      </c>
       <c r="B97">
         <v>2</v>
       </c>
@@ -7415,7 +8919,10 @@
         <v>0.35335540633495383</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>20160517</v>
+      </c>
       <c r="B98">
         <v>3</v>
       </c>
@@ -7441,7 +8948,10 @@
         <v>0.91335186878620844</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>20160517</v>
+      </c>
       <c r="B99">
         <v>3</v>
       </c>
@@ -7467,7 +8977,10 @@
         <v>0.92351589846443138</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>20160517</v>
+      </c>
       <c r="B100">
         <v>3</v>
       </c>
@@ -7493,7 +9006,10 @@
         <v>0.96455691080181327</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>20160517</v>
+      </c>
       <c r="B101">
         <v>3</v>
       </c>
@@ -7519,7 +9035,10 @@
         <v>0.93308796598358656</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>20160517</v>
+      </c>
       <c r="B102">
         <v>3</v>
       </c>
@@ -7545,7 +9064,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>20160517</v>
+      </c>
       <c r="B103">
         <v>3</v>
       </c>
@@ -7571,7 +9093,10 @@
         <v>0.96624848336339308</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>20160517</v>
+      </c>
       <c r="B104">
         <v>3</v>
       </c>
@@ -7597,7 +9122,10 @@
         <v>0.95101467044621402</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>20160517</v>
+      </c>
       <c r="B105">
         <v>3</v>
       </c>
@@ -7623,7 +9151,10 @@
         <v>0.9696315668059805</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>20160517</v>
+      </c>
       <c r="B106">
         <v>3</v>
       </c>
@@ -7649,7 +9180,10 @@
         <v>0.96513121175701488</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>20160517</v>
+      </c>
       <c r="B107">
         <v>3</v>
       </c>
@@ -7675,7 +9209,10 @@
         <v>0.96850451540219606</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>20160517</v>
+      </c>
       <c r="B108">
         <v>3</v>
       </c>
@@ -7701,7 +9238,10 @@
         <v>0.97069875721435694</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>20160517</v>
+      </c>
       <c r="B109">
         <v>3</v>
       </c>
@@ -7727,7 +9267,10 @@
         <v>0.94154275846966518</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>20160517</v>
+      </c>
       <c r="B110">
         <v>3</v>
       </c>
@@ -7753,7 +9296,10 @@
         <v>0.92782324608091316</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>20160517</v>
+      </c>
       <c r="B111">
         <v>3</v>
       </c>
@@ -7779,7 +9325,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>20160517</v>
+      </c>
       <c r="B112">
         <v>3</v>
       </c>
@@ -7805,7 +9354,10 @@
         <v>0.96840989199159111</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>20160517</v>
+      </c>
       <c r="B113">
         <v>3</v>
       </c>
@@ -7831,7 +9383,10 @@
         <v>0.87423487429371938</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>20160517</v>
+      </c>
       <c r="B114">
         <v>3</v>
       </c>
@@ -7857,7 +9412,10 @@
         <v>0.77043654813869433</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>20160517</v>
+      </c>
       <c r="B115">
         <v>3</v>
       </c>
@@ -7883,7 +9441,10 @@
         <v>0.70915153528297858</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>20160517</v>
+      </c>
       <c r="B116">
         <v>3</v>
       </c>
@@ -7909,7 +9470,10 @@
         <v>0.64724189269684884</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>20160517</v>
+      </c>
       <c r="B117">
         <v>3</v>
       </c>
@@ -7935,7 +9499,10 @@
         <v>0.60148291273590038</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>20160517</v>
+      </c>
       <c r="B118">
         <v>3</v>
       </c>
@@ -7961,7 +9528,10 @@
         <v>0.51633254648292326</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>20160517</v>
+      </c>
       <c r="B119">
         <v>3</v>
       </c>
@@ -7987,7 +9557,10 @@
         <v>0.46023784274678819</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>20160517</v>
+      </c>
       <c r="B120">
         <v>3</v>
       </c>
@@ -8013,7 +9586,10 @@
         <v>0.44087865381843122</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>20160517</v>
+      </c>
       <c r="B121">
         <v>3</v>
       </c>
@@ -8039,7 +9615,10 @@
         <v>0.41701667074666565</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>20160505</v>
+      </c>
       <c r="B122">
         <v>1</v>
       </c>
@@ -8065,7 +9644,10 @@
         <v>0.96510476580602278</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>20160505</v>
+      </c>
       <c r="B123">
         <v>1</v>
       </c>
@@ -8091,7 +9673,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>20160505</v>
+      </c>
       <c r="B124">
         <v>1</v>
       </c>
@@ -8117,7 +9702,10 @@
         <v>0.95218177585211283</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>20160505</v>
+      </c>
       <c r="B125">
         <v>1</v>
       </c>
@@ -8143,7 +9731,10 @@
         <v>0.9846282878839332</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>20160505</v>
+      </c>
       <c r="B126">
         <v>1</v>
       </c>
@@ -8169,7 +9760,10 @@
         <v>0.97297735804316232</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>20160505</v>
+      </c>
       <c r="B127">
         <v>1</v>
       </c>
@@ -8195,7 +9789,10 @@
         <v>0.97412855769512086</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>20160505</v>
+      </c>
       <c r="B128">
         <v>1</v>
       </c>
@@ -8221,7 +9818,10 @@
         <v>0.93713490978986347</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>20160505</v>
+      </c>
       <c r="B129">
         <v>1</v>
       </c>
@@ -8247,7 +9847,10 @@
         <v>0.9682662489153242</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>20160505</v>
+      </c>
       <c r="B130">
         <v>1</v>
       </c>
@@ -8273,7 +9876,10 @@
         <v>0.97520067784395259</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>20160505</v>
+      </c>
       <c r="B131">
         <v>1</v>
       </c>
@@ -8299,7 +9905,10 @@
         <v>0.93547825721091005</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>20160505</v>
+      </c>
       <c r="B132">
         <v>1</v>
       </c>
@@ -8325,7 +9934,10 @@
         <v>0.93860264226645351</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>20160505</v>
+      </c>
       <c r="B133">
         <v>1</v>
       </c>
@@ -8351,7 +9963,10 @@
         <v>0.94696718290841331</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>20160505</v>
+      </c>
       <c r="B134">
         <v>1</v>
       </c>
@@ -8377,7 +9992,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>20160505</v>
+      </c>
       <c r="B135">
         <v>1</v>
       </c>
@@ -8403,7 +10021,10 @@
         <v>0.99375317064784408</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>20160505</v>
+      </c>
       <c r="B136">
         <v>1</v>
       </c>
@@ -8429,7 +10050,10 @@
         <v>0.89195914403395482</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>20160505</v>
+      </c>
       <c r="B137">
         <v>1</v>
       </c>
@@ -8455,7 +10079,10 @@
         <v>0.86887392681001874</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>20160505</v>
+      </c>
       <c r="B138">
         <v>1</v>
       </c>
@@ -8481,7 +10108,10 @@
         <v>0.80808807225451129</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>20160505</v>
+      </c>
       <c r="B139">
         <v>1</v>
       </c>
@@ -8507,7 +10137,10 @@
         <v>0.72189014133145213</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>20160505</v>
+      </c>
       <c r="B140">
         <v>1</v>
       </c>
@@ -8533,7 +10166,10 @@
         <v>0.66906202257257485</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>20160505</v>
+      </c>
       <c r="B141">
         <v>1</v>
       </c>
@@ -8559,7 +10195,10 @@
         <v>0.56224156253890867</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>20160505</v>
+      </c>
       <c r="B142">
         <v>1</v>
       </c>
@@ -8585,7 +10224,10 @@
         <v>0.54255594791808082</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>20160505</v>
+      </c>
       <c r="B143">
         <v>1</v>
       </c>
@@ -8611,7 +10253,10 @@
         <v>0.46483246971383357</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>20160505</v>
+      </c>
       <c r="B144">
         <v>1</v>
       </c>
@@ -8637,7 +10282,10 @@
         <v>0.39496669073422125</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>20160505</v>
+      </c>
       <c r="B145">
         <v>1</v>
       </c>
@@ -8663,7 +10311,10 @@
         <v>0.35614750760749397</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>20160510</v>
+      </c>
       <c r="B146">
         <v>2</v>
       </c>
@@ -8689,7 +10340,10 @@
         <v>0.95792392900936663</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>20160510</v>
+      </c>
       <c r="B147">
         <v>2</v>
       </c>
@@ -8715,7 +10369,10 @@
         <v>0.98881487473289309</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>20160510</v>
+      </c>
       <c r="B148">
         <v>2</v>
       </c>
@@ -8741,7 +10398,10 @@
         <v>0.98790307174629255</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>20160510</v>
+      </c>
       <c r="B149">
         <v>2</v>
       </c>
@@ -8767,7 +10427,10 @@
         <v>0.98804482915713254</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>20160510</v>
+      </c>
       <c r="B150">
         <v>2</v>
       </c>
@@ -8793,7 +10456,10 @@
         <v>0.97419706837345721</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>20160510</v>
+      </c>
       <c r="B151">
         <v>2</v>
       </c>
@@ -8819,7 +10485,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>20160510</v>
+      </c>
       <c r="B152">
         <v>2</v>
       </c>
@@ -8845,7 +10514,10 @@
         <v>0.97602769532509204</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>20160510</v>
+      </c>
       <c r="B153">
         <v>2</v>
       </c>
@@ -8871,7 +10543,10 @@
         <v>0.97230664353953067</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>20160510</v>
+      </c>
       <c r="B154">
         <v>2</v>
       </c>
@@ -8897,7 +10572,10 @@
         <v>0.99578626898768219</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>20160510</v>
+      </c>
       <c r="B155">
         <v>2</v>
       </c>
@@ -8923,7 +10601,10 @@
         <v>0.95986702949339664</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>20160510</v>
+      </c>
       <c r="B156">
         <v>2</v>
       </c>
@@ -8949,7 +10630,10 @@
         <v>0.91725984809028016</v>
       </c>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>20160510</v>
+      </c>
       <c r="B157">
         <v>2</v>
       </c>
@@ -8975,7 +10659,10 @@
         <v>0.92814832786263146</v>
       </c>
     </row>
-    <row r="158" spans="2:9">
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>20160510</v>
+      </c>
       <c r="B158">
         <v>2</v>
       </c>
@@ -9001,7 +10688,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:9">
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>20160510</v>
+      </c>
       <c r="B159">
         <v>2</v>
       </c>
@@ -9027,7 +10717,10 @@
         <v>0.9144035963183369</v>
       </c>
     </row>
-    <row r="160" spans="2:9">
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>20160510</v>
+      </c>
       <c r="B160">
         <v>2</v>
       </c>
@@ -9053,7 +10746,10 @@
         <v>0.97799557343557919</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>20160510</v>
+      </c>
       <c r="B161">
         <v>2</v>
       </c>
@@ -9079,7 +10775,10 @@
         <v>0.89199624573102321</v>
       </c>
     </row>
-    <row r="162" spans="2:9">
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>20160510</v>
+      </c>
       <c r="B162">
         <v>2</v>
       </c>
@@ -9105,7 +10804,10 @@
         <v>0.78891498647123215</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>20160510</v>
+      </c>
       <c r="B163">
         <v>2</v>
       </c>
@@ -9131,7 +10833,10 @@
         <v>0.71132771616020596</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>20160510</v>
+      </c>
       <c r="B164">
         <v>2</v>
       </c>
@@ -9157,7 +10862,10 @@
         <v>0.67349134926974874</v>
       </c>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>20160510</v>
+      </c>
       <c r="B165">
         <v>2</v>
       </c>
@@ -9183,7 +10891,10 @@
         <v>0.64425401845902652</v>
       </c>
     </row>
-    <row r="166" spans="2:9">
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>20160510</v>
+      </c>
       <c r="B166">
         <v>2</v>
       </c>
@@ -9209,7 +10920,10 @@
         <v>0.53523251052293652</v>
       </c>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>20160510</v>
+      </c>
       <c r="B167">
         <v>2</v>
       </c>
@@ -9235,7 +10949,10 @@
         <v>0.4506415885999574</v>
       </c>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>20160510</v>
+      </c>
       <c r="B168">
         <v>2</v>
       </c>
@@ -9261,7 +10978,10 @@
         <v>0.4240137053798444</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>20160510</v>
+      </c>
       <c r="B169">
         <v>2</v>
       </c>
@@ -9287,13 +11007,19 @@
         <v>0.35816858793148898</v>
       </c>
     </row>
-    <row r="170" spans="2:9">
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>20160519</v>
+      </c>
       <c r="B170">
         <v>3</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D170" t="s">
+        <v>21</v>
+      </c>
       <c r="E170" t="s">
         <v>13</v>
       </c>
@@ -9303,14 +11029,26 @@
       <c r="G170">
         <v>25</v>
       </c>
-    </row>
-    <row r="171" spans="2:9">
+      <c r="H170">
+        <v>0.79795503110402211</v>
+      </c>
+      <c r="I170">
+        <v>0.99621052923927933</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>20160519</v>
+      </c>
       <c r="B171">
         <v>3</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D171" t="s">
+        <v>21</v>
+      </c>
       <c r="E171" t="s">
         <v>13</v>
       </c>
@@ -9320,14 +11058,26 @@
       <c r="G171">
         <v>30</v>
       </c>
-    </row>
-    <row r="172" spans="2:9">
+      <c r="H171">
+        <v>0.80099036065534468</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>20160519</v>
+      </c>
       <c r="B172">
         <v>3</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D172" t="s">
+        <v>21</v>
+      </c>
       <c r="E172" t="s">
         <v>13</v>
       </c>
@@ -9337,14 +11087,26 @@
       <c r="G172">
         <v>35</v>
       </c>
-    </row>
-    <row r="173" spans="2:9">
+      <c r="H172">
+        <v>0.78963354078695325</v>
+      </c>
+      <c r="I172">
+        <v>0.9858215274162605</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>20160519</v>
+      </c>
       <c r="B173">
         <v>3</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D173" t="s">
+        <v>21</v>
+      </c>
       <c r="E173" t="s">
         <v>13</v>
       </c>
@@ -9354,14 +11116,26 @@
       <c r="G173">
         <v>40</v>
       </c>
-    </row>
-    <row r="174" spans="2:9">
+      <c r="H173">
+        <v>0.78215165955384647</v>
+      </c>
+      <c r="I173">
+        <v>0.97648073931116353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>20160519</v>
+      </c>
       <c r="B174">
         <v>3</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D174" t="s">
+        <v>21</v>
+      </c>
       <c r="E174" t="s">
         <v>13</v>
       </c>
@@ -9371,14 +11145,26 @@
       <c r="G174">
         <v>43</v>
       </c>
-    </row>
-    <row r="175" spans="2:9">
+      <c r="H174">
+        <v>0.77909893620949633</v>
+      </c>
+      <c r="I174">
+        <v>0.97266955319170445</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>20160519</v>
+      </c>
       <c r="B175">
         <v>3</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D175" t="s">
+        <v>21</v>
+      </c>
       <c r="E175" t="s">
         <v>13</v>
       </c>
@@ -9388,14 +11174,26 @@
       <c r="G175">
         <v>45</v>
       </c>
-    </row>
-    <row r="176" spans="2:9">
+      <c r="H175">
+        <v>0.77338822096199078</v>
+      </c>
+      <c r="I175">
+        <v>0.96553998518687456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>20160519</v>
+      </c>
       <c r="B176">
         <v>3</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D176" t="s">
+        <v>21</v>
+      </c>
       <c r="E176" t="s">
         <v>13</v>
       </c>
@@ -9405,14 +11203,26 @@
       <c r="G176">
         <v>48</v>
       </c>
-    </row>
-    <row r="177" spans="2:7">
+      <c r="H176">
+        <v>0.78393050842396816</v>
+      </c>
+      <c r="I176">
+        <v>0.97870155114298918</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>20160519</v>
+      </c>
       <c r="B177">
         <v>3</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D177" t="s">
+        <v>21</v>
+      </c>
       <c r="E177" t="s">
         <v>13</v>
       </c>
@@ -9422,14 +11232,26 @@
       <c r="G177">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="2:7">
+      <c r="H177">
+        <v>0.78343772363256559</v>
+      </c>
+      <c r="I177">
+        <v>0.97808633176506887</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>20160519</v>
+      </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D178" t="s">
+        <v>21</v>
+      </c>
       <c r="E178" t="s">
         <v>13</v>
       </c>
@@ -9439,14 +11261,26 @@
       <c r="G178">
         <v>55</v>
       </c>
-    </row>
-    <row r="179" spans="2:7">
+      <c r="H178">
+        <v>0.74129823229417402</v>
+      </c>
+      <c r="I178">
+        <v>0.92547709523953259</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>20160519</v>
+      </c>
       <c r="B179">
         <v>3</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
       <c r="E179" t="s">
         <v>13</v>
       </c>
@@ -9456,14 +11290,26 @@
       <c r="G179">
         <v>60</v>
       </c>
-    </row>
-    <row r="180" spans="2:7">
+      <c r="H179">
+        <v>0.71193437284334671</v>
+      </c>
+      <c r="I179">
+        <v>0.88881765351191588</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>20160519</v>
+      </c>
       <c r="B180">
         <v>3</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D180" t="s">
+        <v>21</v>
+      </c>
       <c r="E180" t="s">
         <v>13</v>
       </c>
@@ -9473,14 +11319,26 @@
       <c r="G180">
         <v>65</v>
       </c>
-    </row>
-    <row r="181" spans="2:7">
+      <c r="H180">
+        <v>0.73963097839474157</v>
+      </c>
+      <c r="I180">
+        <v>0.92339560464822468</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>20160519</v>
+      </c>
       <c r="B181">
         <v>3</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D181" t="s">
+        <v>21</v>
+      </c>
       <c r="E181" t="s">
         <v>13</v>
       </c>
@@ -9490,14 +11348,26 @@
       <c r="G181">
         <v>70</v>
       </c>
-    </row>
-    <row r="182" spans="2:7">
+      <c r="H181">
+        <v>0.70654423918647957</v>
+      </c>
+      <c r="I181">
+        <v>0.88208831702844426</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>20160519</v>
+      </c>
       <c r="B182">
         <v>3</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D182" t="s">
+        <v>21</v>
+      </c>
       <c r="E182" t="s">
         <v>14</v>
       </c>
@@ -9507,14 +11377,26 @@
       <c r="G182">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="2:7">
+      <c r="H182">
+        <v>0.77677047495520579</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>20160519</v>
+      </c>
       <c r="B183">
         <v>3</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D183" t="s">
+        <v>21</v>
+      </c>
       <c r="E183" t="s">
         <v>14</v>
       </c>
@@ -9524,14 +11406,26 @@
       <c r="G183">
         <v>30</v>
       </c>
-    </row>
-    <row r="184" spans="2:7">
+      <c r="H183">
+        <v>0.75061277477990285</v>
+      </c>
+      <c r="I183">
+        <v>0.96632505866445118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>20160519</v>
+      </c>
       <c r="B184">
         <v>3</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D184" t="s">
+        <v>21</v>
+      </c>
       <c r="E184" t="s">
         <v>14</v>
       </c>
@@ -9541,14 +11435,26 @@
       <c r="G184">
         <v>35</v>
       </c>
-    </row>
-    <row r="185" spans="2:7">
+      <c r="H184">
+        <v>0.70748333232540184</v>
+      </c>
+      <c r="I184">
+        <v>0.91080100896754657</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>20160519</v>
+      </c>
       <c r="B185">
         <v>3</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D185" t="s">
+        <v>21</v>
+      </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
@@ -9558,14 +11464,26 @@
       <c r="G185">
         <v>40</v>
       </c>
-    </row>
-    <row r="186" spans="2:7">
+      <c r="H185">
+        <v>0.67011365325408134</v>
+      </c>
+      <c r="I185">
+        <v>0.86269197254533259</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>20160519</v>
+      </c>
       <c r="B186">
         <v>3</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D186" t="s">
+        <v>21</v>
+      </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
@@ -9575,14 +11493,26 @@
       <c r="G186">
         <v>43</v>
       </c>
-    </row>
-    <row r="187" spans="2:7">
+      <c r="H186">
+        <v>0.60072965191253813</v>
+      </c>
+      <c r="I186">
+        <v>0.77336828739169128</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>20160519</v>
+      </c>
       <c r="B187">
         <v>3</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D187" t="s">
+        <v>21</v>
+      </c>
       <c r="E187" t="s">
         <v>14</v>
       </c>
@@ -9592,14 +11522,26 @@
       <c r="G187">
         <v>45</v>
       </c>
-    </row>
-    <row r="188" spans="2:7">
+      <c r="H187">
+        <v>0.54162089699093185</v>
+      </c>
+      <c r="I187">
+        <v>0.69727276519124348</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>20160519</v>
+      </c>
       <c r="B188">
         <v>3</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D188" t="s">
+        <v>21</v>
+      </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
@@ -9609,14 +11551,26 @@
       <c r="G188">
         <v>48</v>
       </c>
-    </row>
-    <row r="189" spans="2:7">
+      <c r="H188">
+        <v>0.47367943948364272</v>
+      </c>
+      <c r="I188">
+        <v>0.60980618439566525</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>20160519</v>
+      </c>
       <c r="B189">
         <v>3</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D189" t="s">
+        <v>21</v>
+      </c>
       <c r="E189" t="s">
         <v>14</v>
       </c>
@@ -9626,14 +11580,26 @@
       <c r="G189">
         <v>50</v>
       </c>
-    </row>
-    <row r="190" spans="2:7">
+      <c r="H189">
+        <v>0.45954782855286952</v>
+      </c>
+      <c r="I189">
+        <v>0.59161340881213387</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>20160519</v>
+      </c>
       <c r="B190">
         <v>3</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D190" t="s">
+        <v>21</v>
+      </c>
       <c r="E190" t="s">
         <v>14</v>
       </c>
@@ -9643,14 +11609,26 @@
       <c r="G190">
         <v>55</v>
       </c>
-    </row>
-    <row r="191" spans="2:7">
+      <c r="H190">
+        <v>0.40897310944635262</v>
+      </c>
+      <c r="I190">
+        <v>0.52650444710831334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>20160519</v>
+      </c>
       <c r="B191">
         <v>3</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D191" t="s">
+        <v>21</v>
+      </c>
       <c r="E191" t="s">
         <v>14</v>
       </c>
@@ -9660,14 +11638,26 @@
       <c r="G191">
         <v>60</v>
       </c>
-    </row>
-    <row r="192" spans="2:7">
+      <c r="H191">
+        <v>0.31483532631220701</v>
+      </c>
+      <c r="I191">
+        <v>0.40531319928240411</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192">
+        <v>20160519</v>
+      </c>
       <c r="B192">
         <v>3</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D192" t="s">
+        <v>21</v>
+      </c>
       <c r="E192" t="s">
         <v>14</v>
       </c>
@@ -9677,14 +11667,26 @@
       <c r="G192">
         <v>65</v>
       </c>
-    </row>
-    <row r="193" spans="2:7">
+      <c r="H192">
+        <v>0.21496577511012385</v>
+      </c>
+      <c r="I192">
+        <v>0.27674297883492588</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193">
+        <v>20160519</v>
+      </c>
       <c r="B193">
         <v>3</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D193" t="s">
+        <v>21</v>
+      </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
@@ -9693,6 +11695,12 @@
       </c>
       <c r="G193">
         <v>70</v>
+      </c>
+      <c r="H193">
+        <v>0.20236522213987565</v>
+      </c>
+      <c r="I193">
+        <v>0.26052125906503526</v>
       </c>
     </row>
   </sheetData>
@@ -9705,4 +11713,24 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/MASTER_sheet_all_avg_rel_prop_Exp_data.xlsx
+++ b/Data/MASTER_sheet_all_avg_rel_prop_Exp_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="920" windowWidth="25300" windowHeight="13680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="23">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Lex 13</t>
+  </si>
+  <si>
+    <t>Thermocylcer Actual Temp</t>
   </si>
 </sst>
 </file>
@@ -154,8 +157,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -177,7 +182,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -185,6 +190,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -192,6 +198,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -251,7 +258,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -296,7 +303,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$I$25</c:f>
+              <c:f>Sheet1!$J$14:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -354,7 +361,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -399,7 +406,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:f>Sheet1!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -457,7 +464,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -502,7 +509,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$62:$I$73</c:f>
+              <c:f>Sheet1!$J$62:$J$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -560,7 +567,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -605,7 +612,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$50:$I$61</c:f>
+              <c:f>Sheet1!$J$50:$J$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -663,7 +670,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -708,7 +715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$110:$I$121</c:f>
+              <c:f>Sheet1!$J$110:$J$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -766,7 +773,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -811,7 +818,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$98:$I$109</c:f>
+              <c:f>Sheet1!$J$98:$J$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -864,11 +871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134696648"/>
-        <c:axId val="2095669576"/>
+        <c:axId val="2062527992"/>
+        <c:axId val="2063385320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134696648"/>
+        <c:axId val="2062527992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25.0"/>
@@ -903,12 +910,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095669576"/>
+        <c:crossAx val="2063385320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095669576"/>
+        <c:axId val="2063385320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -943,7 +950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134696648"/>
+        <c:crossAx val="2062527992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1022,7 +1029,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1067,7 +1074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$38:$I$49</c:f>
+              <c:f>Sheet1!$J$38:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1125,7 +1132,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1170,7 +1177,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$26:$I$37</c:f>
+              <c:f>Sheet1!$J$26:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1228,7 +1235,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1273,7 +1280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$86:$I$97</c:f>
+              <c:f>Sheet1!$J$86:$J$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1331,7 +1338,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1376,7 +1383,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$74:$I$85</c:f>
+              <c:f>Sheet1!$J$74:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1429,11 +1436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095916184"/>
-        <c:axId val="2095887112"/>
+        <c:axId val="2061505736"/>
+        <c:axId val="2100388328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095916184"/>
+        <c:axId val="2061505736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25.0"/>
@@ -1468,12 +1475,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095887112"/>
+        <c:crossAx val="2100388328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095887112"/>
+        <c:axId val="2100388328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -1508,7 +1515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095916184"/>
+        <c:crossAx val="2061505736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1587,7 +1594,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1632,7 +1639,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$I$25</c:f>
+              <c:f>Sheet1!$J$14:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1690,7 +1697,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1735,7 +1742,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$62:$I$73</c:f>
+              <c:f>Sheet1!$J$62:$J$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1793,7 +1800,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1838,7 +1845,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$38:$I$49</c:f>
+              <c:f>Sheet1!$J$38:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1896,7 +1903,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1941,7 +1948,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$86:$I$97</c:f>
+              <c:f>Sheet1!$J$86:$J$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1999,7 +2006,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2044,7 +2051,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$134:$I$145</c:f>
+              <c:f>Sheet1!$J$134:$J$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2097,11 +2104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095319240"/>
-        <c:axId val="2095325192"/>
+        <c:axId val="2100434312"/>
+        <c:axId val="2100440280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095319240"/>
+        <c:axId val="2100434312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25.0"/>
@@ -2136,13 +2143,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095325192"/>
+        <c:crossAx val="2100440280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095325192"/>
+        <c:axId val="2100440280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -2177,7 +2184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095319240"/>
+        <c:crossAx val="2100434312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2256,7 +2263,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$122:$G$133</c:f>
+              <c:f>Sheet1!$H$122:$H$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2301,7 +2308,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$134:$I$145</c:f>
+              <c:f>Sheet1!$J$134:$J$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2359,7 +2366,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$122:$G$133</c:f>
+              <c:f>Sheet1!$H$122:$H$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2404,7 +2411,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$122:$I$133</c:f>
+              <c:f>Sheet1!$J$122:$J$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2462,7 +2469,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$122:$G$133</c:f>
+              <c:f>Sheet1!$H$122:$H$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2507,7 +2514,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$157:$I$169</c:f>
+              <c:f>Sheet1!$J$157:$J$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2568,7 +2575,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$122:$G$133</c:f>
+              <c:f>Sheet1!$H$122:$H$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2613,7 +2620,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$146:$I$156</c:f>
+              <c:f>Sheet1!$J$146:$J$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2668,7 +2675,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$122:$G$133</c:f>
+              <c:f>Sheet1!$H$122:$H$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2713,7 +2720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$182:$I$193</c:f>
+              <c:f>Sheet1!$J$182:$J$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2771,7 +2778,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$122:$G$133</c:f>
+              <c:f>Sheet1!$H$122:$H$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2816,7 +2823,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$170:$I$181</c:f>
+              <c:f>Sheet1!$J$170:$J$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2869,11 +2876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095219208"/>
-        <c:axId val="-2145333832"/>
+        <c:axId val="2100489416"/>
+        <c:axId val="2100495320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095219208"/>
+        <c:axId val="2100489416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25.0"/>
@@ -2908,16 +2915,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145333832"/>
+        <c:crossAx val="2100495320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145333832"/>
+        <c:axId val="2100495320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.3"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2949,7 +2956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095219208"/>
+        <c:crossAx val="2100489416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3042,7 +3049,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3087,7 +3094,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$I$25</c:f>
+              <c:f>Sheet1!$J$14:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3159,7 +3166,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3204,7 +3211,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$62:$I$73</c:f>
+              <c:f>Sheet1!$J$62:$J$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3276,7 +3283,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3321,7 +3328,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$110:$I$121</c:f>
+              <c:f>Sheet1!$J$110:$J$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3393,7 +3400,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3438,7 +3445,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$134:$I$145</c:f>
+              <c:f>Sheet1!$J$134:$J$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3510,7 +3517,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3555,7 +3562,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$158:$I$169</c:f>
+              <c:f>Sheet1!$J$158:$J$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3627,7 +3634,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3672,7 +3679,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$38:$I$49</c:f>
+              <c:f>Sheet1!$J$38:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3744,7 +3751,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3789,7 +3796,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$182:$I$193</c:f>
+              <c:f>Sheet1!$J$182:$J$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3842,11 +3849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144662312"/>
-        <c:axId val="-2141535272"/>
+        <c:axId val="2100554312"/>
+        <c:axId val="2100562024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144662312"/>
+        <c:axId val="2100554312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -3882,17 +3889,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141535272"/>
+        <c:crossAx val="2100562024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141535272"/>
+        <c:axId val="2100562024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
-          <c:min val="0.3"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3924,7 +3931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144662312"/>
+        <c:crossAx val="2100554312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4017,7 +4024,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4062,7 +4069,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$38:$I$49</c:f>
+              <c:f>Sheet1!$J$38:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4134,7 +4141,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4179,7 +4186,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$86:$I$97</c:f>
+              <c:f>Sheet1!$J$86:$J$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4251,7 +4258,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4296,7 +4303,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$134:$I$145</c:f>
+              <c:f>Sheet1!$J$134:$J$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4368,7 +4375,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4413,7 +4420,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$158:$I$169</c:f>
+              <c:f>Sheet1!$J$158:$J$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4485,7 +4492,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$37</c:f>
+              <c:f>Sheet1!$H$26:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4530,7 +4537,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$182:$I$193</c:f>
+              <c:f>Sheet1!$J$182:$J$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4583,11 +4590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146529704"/>
-        <c:axId val="-2141750856"/>
+        <c:axId val="2100604952"/>
+        <c:axId val="2100613016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146529704"/>
+        <c:axId val="2100604952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25.0"/>
@@ -4622,16 +4629,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141750856"/>
+        <c:crossAx val="2100613016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141750856"/>
+        <c:axId val="2100613016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.3"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4663,7 +4670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146529704"/>
+        <c:crossAx val="2100604952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4720,7 +4727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4756,7 +4762,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4801,7 +4807,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$I$25</c:f>
+              <c:f>Sheet1!$J$14:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4873,7 +4879,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4918,7 +4924,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$62:$I$73</c:f>
+              <c:f>Sheet1!$J$62:$J$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4990,7 +4996,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5035,7 +5041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$110:$I$121</c:f>
+              <c:f>Sheet1!$J$110:$J$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5107,7 +5113,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5152,7 +5158,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$134:$I$145</c:f>
+              <c:f>Sheet1!$J$134:$J$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5224,7 +5230,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5269,7 +5275,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$158:$I$169</c:f>
+              <c:f>Sheet1!$J$158:$J$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5341,7 +5347,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5386,7 +5392,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$38:$I$49</c:f>
+              <c:f>Sheet1!$J$38:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5439,11 +5445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136915592"/>
-        <c:axId val="-2136525064"/>
+        <c:axId val="2100673320"/>
+        <c:axId val="2100681368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136915592"/>
+        <c:axId val="2100673320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -5472,20 +5478,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136525064"/>
+        <c:crossAx val="2100681368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136525064"/>
+        <c:axId val="2100681368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5514,21 +5519,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136915592"/>
+        <c:crossAx val="2100673320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5547,13 +5550,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5577,13 +5580,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -5607,13 +5610,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -5637,13 +5640,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -5667,13 +5670,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -5697,13 +5700,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -6087,10 +6090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6101,12 +6104,13 @@
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6126,16 +6130,19 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>20160407</v>
       </c>
@@ -6158,13 +6165,16 @@
         <v>25</v>
       </c>
       <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
         <v>0.92901188800328627</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.94882929291456342</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>20160407</v>
       </c>
@@ -6184,16 +6194,19 @@
         <v>2</v>
       </c>
       <c r="G3">
+        <v>30.1</v>
+      </c>
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.90157880498765119</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.9208110155423157</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>20160407</v>
       </c>
@@ -6213,16 +6226,19 @@
         <v>3</v>
       </c>
       <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4">
         <v>35</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.95546307104246719</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.97584472471249417</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>20160407</v>
       </c>
@@ -6242,16 +6258,19 @@
         <v>4</v>
       </c>
       <c r="G5">
+        <v>41.2</v>
+      </c>
+      <c r="H5">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.96368648334527318</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.98424355639740013</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>20160407</v>
       </c>
@@ -6271,16 +6290,19 @@
         <v>5</v>
       </c>
       <c r="G6">
+        <v>43.9</v>
+      </c>
+      <c r="H6">
         <v>43</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.96347607620746145</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.98402866091718932</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>20160407</v>
       </c>
@@ -6300,16 +6322,19 @@
         <v>6</v>
       </c>
       <c r="G7">
+        <v>46.3</v>
+      </c>
+      <c r="H7">
         <v>45</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.97911383527124984</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>20160407</v>
       </c>
@@ -6329,16 +6354,19 @@
         <v>7</v>
       </c>
       <c r="G8">
+        <v>48.2</v>
+      </c>
+      <c r="H8">
         <v>48</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.92691282631892713</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.946685454671508</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>20160407</v>
       </c>
@@ -6358,16 +6386,19 @@
         <v>8</v>
       </c>
       <c r="G9">
+        <v>50.3</v>
+      </c>
+      <c r="H9">
         <v>50</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.96088606453487502</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.98138339988697532</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>20160407</v>
       </c>
@@ -6387,16 +6418,19 @@
         <v>9</v>
       </c>
       <c r="G10">
+        <v>55.1</v>
+      </c>
+      <c r="H10">
         <v>55</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.96343850350428073</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.98399028672429445</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>20160407</v>
       </c>
@@ -6416,16 +6450,19 @@
         <v>10</v>
       </c>
       <c r="G11">
+        <v>61.2</v>
+      </c>
+      <c r="H11">
         <v>60</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.95483184962903223</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.97520003827186175</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>20160407</v>
       </c>
@@ -6445,16 +6482,19 @@
         <v>11</v>
       </c>
       <c r="G12">
+        <v>65.2</v>
+      </c>
+      <c r="H12">
         <v>65</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.83655798971008899</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.85440319559812195</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>20160407</v>
       </c>
@@ -6474,16 +6514,19 @@
         <v>12</v>
       </c>
       <c r="G13">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H13">
         <v>70</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.93730042632493871</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.95729463986715368</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>20160407</v>
       </c>
@@ -6506,13 +6549,16 @@
         <v>25</v>
       </c>
       <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
         <v>0.88642698621833238</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>20160407</v>
       </c>
@@ -6532,16 +6578,19 @@
         <v>2</v>
       </c>
       <c r="G15">
+        <v>30.1</v>
+      </c>
+      <c r="H15">
         <v>30</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.87407558625941184</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.98606608310559907</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>20160407</v>
       </c>
@@ -6561,16 +6610,19 @@
         <v>3</v>
       </c>
       <c r="G16">
+        <v>36</v>
+      </c>
+      <c r="H16">
         <v>35</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.86511825382114382</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.97596109693354927</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>20160407</v>
       </c>
@@ -6590,16 +6642,19 @@
         <v>4</v>
       </c>
       <c r="G17">
+        <v>41.2</v>
+      </c>
+      <c r="H17">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.747550760721997</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.84333032764626448</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>20160407</v>
       </c>
@@ -6619,16 +6674,19 @@
         <v>5</v>
       </c>
       <c r="G18">
+        <v>43.9</v>
+      </c>
+      <c r="H18">
         <v>43</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.71371779393125701</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.80516252892538176</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>20160407</v>
       </c>
@@ -6648,16 +6706,19 @@
         <v>6</v>
       </c>
       <c r="G19">
+        <v>46.3</v>
+      </c>
+      <c r="H19">
         <v>45</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.64919794802943698</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.73237611007200942</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>20160407</v>
       </c>
@@ -6677,16 +6738,19 @@
         <v>7</v>
       </c>
       <c r="G20">
+        <v>48.2</v>
+      </c>
+      <c r="H20">
         <v>48</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.55035418534864955</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.62086803978810046</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20160407</v>
       </c>
@@ -6706,16 +6770,19 @@
         <v>8</v>
       </c>
       <c r="G21">
+        <v>50.3</v>
+      </c>
+      <c r="H21">
         <v>50</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.53124721335784741</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.59931299657769899</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20160407</v>
       </c>
@@ -6735,16 +6802,19 @@
         <v>9</v>
       </c>
       <c r="G22">
+        <v>55.1</v>
+      </c>
+      <c r="H22">
         <v>55</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.43551697534729705</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.49131736975348195</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>20160407</v>
       </c>
@@ -6764,16 +6834,19 @@
         <v>10</v>
       </c>
       <c r="G23">
+        <v>61.2</v>
+      </c>
+      <c r="H23">
         <v>60</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.36336736585292539</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.40992362766742957</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>20160407</v>
       </c>
@@ -6793,16 +6866,19 @@
         <v>11</v>
       </c>
       <c r="G24">
+        <v>65.2</v>
+      </c>
+      <c r="H24">
         <v>65</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.36900076648314484</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.41627880493279307</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>20160407</v>
       </c>
@@ -6822,16 +6898,19 @@
         <v>12</v>
       </c>
       <c r="G25">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H25">
         <v>70</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.36480264311442645</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.41154279910942754</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>20160412</v>
       </c>
@@ -6854,13 +6933,16 @@
         <v>25</v>
       </c>
       <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
         <v>1.0220408163265307</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.97504354796282533</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>20160412</v>
       </c>
@@ -6880,16 +6962,19 @@
         <v>2</v>
       </c>
       <c r="G27">
+        <v>30.1</v>
+      </c>
+      <c r="H27">
         <v>30</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.0482001736864959</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>20160412</v>
       </c>
@@ -6909,16 +6994,19 @@
         <v>3</v>
       </c>
       <c r="G28">
+        <v>36</v>
+      </c>
+      <c r="H28">
         <v>35</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.97594659140251849</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.93106890830797784</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>20160412</v>
       </c>
@@ -6938,16 +7026,19 @@
         <v>4</v>
       </c>
       <c r="G29">
+        <v>41.2</v>
+      </c>
+      <c r="H29">
         <v>40</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.94168693009118543</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.89838463466314278</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>20160412</v>
       </c>
@@ -6967,16 +7058,19 @@
         <v>5</v>
       </c>
       <c r="G30">
+        <v>43.9</v>
+      </c>
+      <c r="H30">
         <v>43</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.99969821971341721</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.95372834770433357</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>20160412</v>
       </c>
@@ -6996,16 +7090,19 @@
         <v>6</v>
       </c>
       <c r="G31">
+        <v>46.3</v>
+      </c>
+      <c r="H31">
         <v>45</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.82785714285714285</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.78978916779377006</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>20160412</v>
       </c>
@@ -7025,16 +7122,19 @@
         <v>7</v>
       </c>
       <c r="G32">
+        <v>48.2</v>
+      </c>
+      <c r="H32">
         <v>48</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.95823056882327395</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.91416753486426083</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>20160412</v>
       </c>
@@ -7054,16 +7154,19 @@
         <v>8</v>
       </c>
       <c r="G33">
+        <v>50.3</v>
+      </c>
+      <c r="H33">
         <v>50</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.86734910985670854</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.82746514609538913</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>20160412</v>
       </c>
@@ -7083,16 +7186,19 @@
         <v>9</v>
       </c>
       <c r="G34">
+        <v>55.1</v>
+      </c>
+      <c r="H34">
         <v>55</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.9357164567954841</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.89268870611287043</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>20160412</v>
       </c>
@@ -7112,16 +7218,19 @@
         <v>10</v>
       </c>
       <c r="G35">
+        <v>61.2</v>
+      </c>
+      <c r="H35">
         <v>60</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.91400564481111601</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.87197623865733509</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>20160412</v>
       </c>
@@ -7141,16 +7250,19 @@
         <v>11</v>
       </c>
       <c r="G36">
+        <v>65.2</v>
+      </c>
+      <c r="H36">
         <v>65</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.9404059921841077</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.89716259908326623</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>20160412</v>
       </c>
@@ -7170,16 +7282,19 @@
         <v>12</v>
       </c>
       <c r="G37">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H37">
         <v>70</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.91782674772036477</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.87562163292950923</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>20160412</v>
       </c>
@@ -7202,13 +7317,16 @@
         <v>25</v>
       </c>
       <c r="H38">
+        <v>25</v>
+      </c>
+      <c r="I38">
         <v>0.97014980460269207</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.96326723303534667</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>20160412</v>
       </c>
@@ -7228,16 +7346,19 @@
         <v>2</v>
       </c>
       <c r="G39">
+        <v>30.1</v>
+      </c>
+      <c r="H39">
         <v>30</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1.0071450282240555</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>20160412</v>
       </c>
@@ -7257,16 +7378,19 @@
         <v>3</v>
       </c>
       <c r="G40">
+        <v>36</v>
+      </c>
+      <c r="H40">
         <v>35</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.94674554928354315</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.94002901543681605</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>20160412</v>
       </c>
@@ -7286,16 +7410,19 @@
         <v>4</v>
       </c>
       <c r="G41">
+        <v>41.2</v>
+      </c>
+      <c r="H41">
         <v>40</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.88840859748154588</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.88210592574548774</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>20160412</v>
       </c>
@@ -7315,16 +7442,19 @@
         <v>5</v>
       </c>
       <c r="G42">
+        <v>43.9</v>
+      </c>
+      <c r="H42">
         <v>43</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.76057533651758569</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.75517955726668551</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>20160412</v>
       </c>
@@ -7344,16 +7474,19 @@
         <v>6</v>
       </c>
       <c r="G43">
+        <v>46.3</v>
+      </c>
+      <c r="H43">
         <v>45</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.63137429439861048</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.62689511113602125</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>20160412</v>
       </c>
@@ -7373,16 +7506,19 @@
         <v>7</v>
       </c>
       <c r="G44">
+        <v>48.2</v>
+      </c>
+      <c r="H44">
         <v>48</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.60414893617021281</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.59986289882752641</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>20160412</v>
       </c>
@@ -7402,16 +7538,19 @@
         <v>8</v>
       </c>
       <c r="G45">
+        <v>50.3</v>
+      </c>
+      <c r="H45">
         <v>50</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.55286799826313504</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.54894576527675687</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>20160412</v>
       </c>
@@ -7431,16 +7570,19 @@
         <v>9</v>
       </c>
       <c r="G46">
+        <v>55.1</v>
+      </c>
+      <c r="H46">
         <v>55</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.50595093356491527</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.50236154613907147</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>20160412</v>
       </c>
@@ -7460,16 +7602,19 @@
         <v>10</v>
       </c>
       <c r="G47">
+        <v>61.2</v>
+      </c>
+      <c r="H47">
         <v>60</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.44717976552323058</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.44400732068524723</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>20160412</v>
       </c>
@@ -7489,16 +7634,19 @@
         <v>11</v>
       </c>
       <c r="G48">
+        <v>65.2</v>
+      </c>
+      <c r="H48">
         <v>65</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.37090968302214505</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.36827832400283694</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>20160412</v>
       </c>
@@ -7518,16 +7666,19 @@
         <v>12</v>
       </c>
       <c r="G49">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H49">
         <v>70</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.38178679982631347</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.37907827485335993</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>20160419</v>
       </c>
@@ -7550,13 +7701,16 @@
         <v>25</v>
       </c>
       <c r="H50">
+        <v>25</v>
+      </c>
+      <c r="I50">
         <v>0.86275534680264732</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.95030126858599384</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>20160419</v>
       </c>
@@ -7576,16 +7730,19 @@
         <v>2</v>
       </c>
       <c r="G51">
+        <v>30.1</v>
+      </c>
+      <c r="H51">
         <v>30</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.88949785507642243</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.97975740540614986</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>20160419</v>
       </c>
@@ -7605,16 +7762,19 @@
         <v>3</v>
       </c>
       <c r="G52">
+        <v>36</v>
+      </c>
+      <c r="H52">
         <v>35</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>0.86015310976090564</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.9474349761067955</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>20160419</v>
       </c>
@@ -7634,16 +7794,19 @@
         <v>4</v>
       </c>
       <c r="G53">
+        <v>41.2</v>
+      </c>
+      <c r="H53">
         <v>40</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>0.88975045607426484</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0.98003563845284769</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>20160419</v>
       </c>
@@ -7663,16 +7826,19 @@
         <v>5</v>
       </c>
       <c r="G54">
+        <v>43.9</v>
+      </c>
+      <c r="H54">
         <v>43</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>0.90787561305309949</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>20160419</v>
       </c>
@@ -7692,16 +7858,19 @@
         <v>6</v>
       </c>
       <c r="G55">
+        <v>46.3</v>
+      </c>
+      <c r="H55">
         <v>45</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.87659386060872979</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.96554401066113882</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>20160419</v>
       </c>
@@ -7721,16 +7890,19 @@
         <v>7</v>
       </c>
       <c r="G56">
+        <v>48.2</v>
+      </c>
+      <c r="H56">
         <v>48</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.88120636428638</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.97062455651051871</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>20160419</v>
       </c>
@@ -7750,16 +7922,19 @@
         <v>8</v>
       </c>
       <c r="G57">
+        <v>50.3</v>
+      </c>
+      <c r="H57">
         <v>50</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>0.86126646512720273</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0.94866130639950264</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>20160419</v>
       </c>
@@ -7779,16 +7954,19 @@
         <v>9</v>
       </c>
       <c r="G58">
+        <v>55.1</v>
+      </c>
+      <c r="H58">
         <v>55</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.87008839029378215</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.95837841416155845</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>20160419</v>
       </c>
@@ -7808,16 +7986,19 @@
         <v>10</v>
       </c>
       <c r="G59">
+        <v>61.2</v>
+      </c>
+      <c r="H59">
         <v>60</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.85847924497672612</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0.94559126011738759</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>20160419</v>
       </c>
@@ -7837,16 +8018,19 @@
         <v>11</v>
       </c>
       <c r="G60">
+        <v>65.2</v>
+      </c>
+      <c r="H60">
         <v>65</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.82895809311617619</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.91307452386397825</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>20160419</v>
       </c>
@@ -7866,16 +8050,19 @@
         <v>12</v>
       </c>
       <c r="G61">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H61">
         <v>70</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>0.8157029894574791</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0.89847439200877688</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>20160419</v>
       </c>
@@ -7898,13 +8085,16 @@
         <v>25</v>
       </c>
       <c r="H62">
+        <v>25</v>
+      </c>
+      <c r="I62">
         <v>0.75782682936310175</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.96632484825056764</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>20160419</v>
       </c>
@@ -7924,16 +8114,19 @@
         <v>2</v>
       </c>
       <c r="G63">
+        <v>30.1</v>
+      </c>
+      <c r="H63">
         <v>30</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.78423609900445979</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>20160419</v>
       </c>
@@ -7953,16 +8146,19 @@
         <v>3</v>
       </c>
       <c r="G64">
+        <v>36</v>
+      </c>
+      <c r="H64">
         <v>35</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>0.74507064202460127</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0.95005909951151613</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>20160419</v>
       </c>
@@ -7982,16 +8178,19 @@
         <v>4</v>
       </c>
       <c r="G65">
+        <v>41.2</v>
+      </c>
+      <c r="H65">
         <v>40</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0.69820193075732495</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0.89029557762471023</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>20160419</v>
       </c>
@@ -8011,16 +8210,19 @@
         <v>5</v>
       </c>
       <c r="G66">
+        <v>43.9</v>
+      </c>
+      <c r="H66">
         <v>43</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.63171058796681379</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0.80551072409027347</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>20160419</v>
       </c>
@@ -8040,16 +8242,19 @@
         <v>6</v>
       </c>
       <c r="G67">
+        <v>46.3</v>
+      </c>
+      <c r="H67">
         <v>45</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.57883039036539496</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.73808179845353339</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>20160419</v>
       </c>
@@ -8069,16 +8274,19 @@
         <v>7</v>
       </c>
       <c r="G68">
+        <v>48.2</v>
+      </c>
+      <c r="H68">
         <v>48</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>0.54140563340662229</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0.69036051017532085</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>20160419</v>
       </c>
@@ -8098,16 +8306,19 @@
         <v>8</v>
       </c>
       <c r="G69">
+        <v>50.3</v>
+      </c>
+      <c r="H69">
         <v>50</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>0.48246237595207192</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0.61520041804314884</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>20160419</v>
       </c>
@@ -8127,16 +8338,19 @@
         <v>9</v>
       </c>
       <c r="G70">
+        <v>55.1</v>
+      </c>
+      <c r="H70">
         <v>55</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.43670952290761034</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0.55685975621625505</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>20160419</v>
       </c>
@@ -8156,16 +8370,19 @@
         <v>10</v>
       </c>
       <c r="G71">
+        <v>61.2</v>
+      </c>
+      <c r="H71">
         <v>60</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.33770812026442426</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0.43062047346854382</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>20160419</v>
       </c>
@@ -8185,16 +8402,19 @@
         <v>11</v>
       </c>
       <c r="G72">
+        <v>65.2</v>
+      </c>
+      <c r="H72">
         <v>65</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.33504680928676839</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0.4272269661038175</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>20160419</v>
       </c>
@@ -8214,16 +8434,19 @@
         <v>12</v>
       </c>
       <c r="G73">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H73">
         <v>70</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.32120216470511198</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0.40957329701203332</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>20160422</v>
       </c>
@@ -8246,13 +8469,16 @@
         <v>25</v>
       </c>
       <c r="H74">
+        <v>25</v>
+      </c>
+      <c r="I74">
         <v>1.0129536049699281</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>0.95713089613919045</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>20160422</v>
       </c>
@@ -8272,16 +8498,19 @@
         <v>2</v>
       </c>
       <c r="G75">
+        <v>30.1</v>
+      </c>
+      <c r="H75">
         <v>30</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0.96468130127062557</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0.91151882361017433</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>20160422</v>
       </c>
@@ -8301,16 +8530,19 @@
         <v>3</v>
       </c>
       <c r="G76">
+        <v>36</v>
+      </c>
+      <c r="H76">
         <v>35</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>1.0106333322909826</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.95493849102054496</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>20160422</v>
       </c>
@@ -8330,16 +8562,19 @@
         <v>4</v>
       </c>
       <c r="G77">
+        <v>41.2</v>
+      </c>
+      <c r="H77">
         <v>40</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>1.0047513472382918</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0.94938065540306238</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>20160422</v>
       </c>
@@ -8359,16 +8594,19 @@
         <v>5</v>
       </c>
       <c r="G78">
+        <v>43.9</v>
+      </c>
+      <c r="H78">
         <v>43</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>1.0583229619437755</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>20160422</v>
       </c>
@@ -8388,16 +8626,19 @@
         <v>6</v>
       </c>
       <c r="G79">
+        <v>46.3</v>
+      </c>
+      <c r="H79">
         <v>45</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.96757069743685964</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.91424898847490266</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>20160422</v>
       </c>
@@ -8417,16 +8658,19 @@
         <v>7</v>
       </c>
       <c r="G80">
+        <v>48.2</v>
+      </c>
+      <c r="H80">
         <v>48</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>1.0035620250789581</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0.94825687542086357</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>20160422</v>
       </c>
@@ -8446,16 +8690,19 @@
         <v>8</v>
       </c>
       <c r="G81">
+        <v>50.3</v>
+      </c>
+      <c r="H81">
         <v>50</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0.99117681395082202</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>0.93655419904182269</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>20160422</v>
       </c>
@@ -8475,16 +8722,19 @@
         <v>9</v>
       </c>
       <c r="G82">
+        <v>55.1</v>
+      </c>
+      <c r="H82">
         <v>55</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>1.028889062614007</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>0.97218816902951011</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>20160422</v>
       </c>
@@ -8504,16 +8754,19 @@
         <v>10</v>
       </c>
       <c r="G83">
+        <v>61.2</v>
+      </c>
+      <c r="H83">
         <v>60</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0.93702773695237507</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.88538921543512317</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>20160422</v>
       </c>
@@ -8533,16 +8786,19 @@
         <v>11</v>
       </c>
       <c r="G84">
+        <v>65.2</v>
+      </c>
+      <c r="H84">
         <v>65</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>1.001742080740486</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>0.94653722612295033</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>20160422</v>
       </c>
@@ -8562,16 +8818,19 @@
         <v>12</v>
       </c>
       <c r="G85">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H85">
         <v>70</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>0.89036169569613399</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0.84129488607224923</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>20160422</v>
       </c>
@@ -8594,13 +8853,16 @@
         <v>25</v>
       </c>
       <c r="H86">
+        <v>25</v>
+      </c>
+      <c r="I86">
         <v>0.85857729551684958</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0.99384407705979982</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>20160422</v>
       </c>
@@ -8620,16 +8882,19 @@
         <v>2</v>
       </c>
       <c r="G87">
+        <v>30.1</v>
+      </c>
+      <c r="H87">
         <v>30</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.86389536883579854</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>20160422</v>
       </c>
@@ -8649,16 +8914,19 @@
         <v>3</v>
       </c>
       <c r="G88">
+        <v>36</v>
+      </c>
+      <c r="H88">
         <v>35</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>0.77492656639252855</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>0.89701437737400302</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>20160422</v>
       </c>
@@ -8678,16 +8946,19 @@
         <v>4</v>
       </c>
       <c r="G89">
+        <v>41.2</v>
+      </c>
+      <c r="H89">
         <v>40</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.74188926066064198</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>0.85877212382840495</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>20160422</v>
       </c>
@@ -8707,16 +8978,19 @@
         <v>5</v>
       </c>
       <c r="G90">
+        <v>43.9</v>
+      </c>
+      <c r="H90">
         <v>43</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>0.70419785901164322</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>0.81514253278222026</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>20160422</v>
       </c>
@@ -8736,16 +9010,19 @@
         <v>6</v>
       </c>
       <c r="G91">
+        <v>46.3</v>
+      </c>
+      <c r="H91">
         <v>45</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>0.67177345549683631</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0.77760974271934191</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>20160422</v>
       </c>
@@ -8765,16 +9042,19 @@
         <v>7</v>
       </c>
       <c r="G92">
+        <v>48.2</v>
+      </c>
+      <c r="H92">
         <v>48</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>0.66530671169621736</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>0.7701241790343164</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>20160422</v>
       </c>
@@ -8794,16 +9074,19 @@
         <v>8</v>
       </c>
       <c r="G93">
+        <v>50.3</v>
+      </c>
+      <c r="H93">
         <v>50</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.63876533558481086</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>0.73940127314911164</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>20160422</v>
       </c>
@@ -8823,16 +9106,19 @@
         <v>9</v>
       </c>
       <c r="G94">
+        <v>55.1</v>
+      </c>
+      <c r="H94">
         <v>55</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.60224240908095938</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>0.6971242476881806</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>20160422</v>
       </c>
@@ -8852,16 +9138,19 @@
         <v>10</v>
       </c>
       <c r="G95">
+        <v>61.2</v>
+      </c>
+      <c r="H95">
         <v>60</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0.51621512033938943</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>0.59754356715102031</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>20160422</v>
       </c>
@@ -8881,16 +9170,19 @@
         <v>11</v>
       </c>
       <c r="G96">
+        <v>65.2</v>
+      </c>
+      <c r="H96">
         <v>65</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.37183703889010494</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>0.43041906728959484</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>20160422</v>
       </c>
@@ -8910,16 +9202,19 @@
         <v>12</v>
       </c>
       <c r="G97">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H97">
         <v>70</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>0.30526209908585838</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>0.35335540633495383</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>20160517</v>
       </c>
@@ -8942,13 +9237,16 @@
         <v>25</v>
       </c>
       <c r="H98">
+        <v>25</v>
+      </c>
+      <c r="I98">
         <v>0.94451406614923406</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>0.91335186878620844</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>20160517</v>
       </c>
@@ -8968,16 +9266,19 @@
         <v>2</v>
       </c>
       <c r="G99">
+        <v>30.1</v>
+      </c>
+      <c r="H99">
         <v>30</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0.95502487729214847</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>0.92351589846443138</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>20160517</v>
       </c>
@@ -8997,16 +9298,19 @@
         <v>3</v>
       </c>
       <c r="G100">
+        <v>36</v>
+      </c>
+      <c r="H100">
         <v>35</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>0.99746614748210971</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>0.96455691080181327</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>20160517</v>
       </c>
@@ -9026,16 +9330,19 @@
         <v>4</v>
       </c>
       <c r="G101">
+        <v>41.2</v>
+      </c>
+      <c r="H101">
         <v>40</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>0.96492352941401605</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>0.93308796598358656</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>20160517</v>
       </c>
@@ -9055,16 +9362,19 @@
         <v>5</v>
       </c>
       <c r="G102">
+        <v>43.9</v>
+      </c>
+      <c r="H102">
         <v>43</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>1.034118501782274</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>20160517</v>
       </c>
@@ -9084,16 +9394,19 @@
         <v>6</v>
       </c>
       <c r="G103">
+        <v>46.3</v>
+      </c>
+      <c r="H103">
         <v>45</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>0.99921543396514656</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>0.96624848336339308</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>20160517</v>
       </c>
@@ -9113,16 +9426,19 @@
         <v>7</v>
       </c>
       <c r="G104">
+        <v>48.2</v>
+      </c>
+      <c r="H104">
         <v>48</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>0.98346186617480191</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>0.95101467044621402</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>20160517</v>
       </c>
@@ -9142,16 +9458,19 @@
         <v>8</v>
       </c>
       <c r="G105">
+        <v>50.3</v>
+      </c>
+      <c r="H105">
         <v>50</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>1.0027139431461995</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>0.9696315668059805</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>20160517</v>
       </c>
@@ -9171,16 +9490,19 @@
         <v>9</v>
       </c>
       <c r="G106">
+        <v>55.1</v>
+      </c>
+      <c r="H106">
         <v>55</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>0.99806004272547488</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>0.96513121175701488</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>20160517</v>
       </c>
@@ -9200,16 +9522,19 @@
         <v>10</v>
       </c>
       <c r="G107">
+        <v>61.2</v>
+      </c>
+      <c r="H107">
         <v>60</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>1.0015484384370863</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>0.96850451540219606</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>20160517</v>
       </c>
@@ -9229,16 +9554,19 @@
         <v>11</v>
       </c>
       <c r="G108">
+        <v>65.2</v>
+      </c>
+      <c r="H108">
         <v>65</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>1.0038175444924262</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>0.97069875721435694</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>20160517</v>
       </c>
@@ -9258,16 +9586,19 @@
         <v>12</v>
       </c>
       <c r="G109">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H109">
         <v>70</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>0.97366678675259966</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>0.94154275846966518</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>20160517</v>
       </c>
@@ -9290,13 +9621,16 @@
         <v>25</v>
       </c>
       <c r="H110">
+        <v>25</v>
+      </c>
+      <c r="I110">
         <v>0.83700275837614624</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>0.92782324608091316</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>20160517</v>
       </c>
@@ -9316,16 +9650,19 @@
         <v>2</v>
       </c>
       <c r="G111">
+        <v>30.1</v>
+      </c>
+      <c r="H111">
         <v>30</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0.90211445112160227</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>20160517</v>
       </c>
@@ -9345,16 +9682,19 @@
         <v>3</v>
       </c>
       <c r="G112">
+        <v>36</v>
+      </c>
+      <c r="H112">
         <v>35</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>0.87361655817472439</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>0.96840989199159111</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>20160517</v>
       </c>
@@ -9374,16 +9714,19 @@
         <v>4</v>
       </c>
       <c r="G113">
+        <v>41.2</v>
+      </c>
+      <c r="H113">
         <v>40</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>0.78865991377484157</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>0.87423487429371938</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>20160517</v>
       </c>
@@ -9403,16 +9746,19 @@
         <v>5</v>
       </c>
       <c r="G114">
+        <v>43.9</v>
+      </c>
+      <c r="H114">
         <v>43</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>0.69502194374816018</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>0.77043654813869433</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>20160517</v>
       </c>
@@ -9432,16 +9778,19 @@
         <v>6</v>
       </c>
       <c r="G115">
+        <v>46.3</v>
+      </c>
+      <c r="H115">
         <v>45</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>0.63973584801384575</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>0.70915153528297858</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>20160517</v>
       </c>
@@ -9461,16 +9810,19 @@
         <v>7</v>
       </c>
       <c r="G116">
+        <v>48.2</v>
+      </c>
+      <c r="H116">
         <v>48</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>0.58388626477312477</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>0.64724189269684884</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>20160517</v>
       </c>
@@ -9490,16 +9842,19 @@
         <v>8</v>
       </c>
       <c r="G117">
+        <v>50.3</v>
+      </c>
+      <c r="H117">
         <v>50</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>0.54260642768176937</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>0.60148291273590038</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>20160517</v>
       </c>
@@ -9519,16 +9874,19 @@
         <v>9</v>
       </c>
       <c r="G118">
+        <v>55.1</v>
+      </c>
+      <c r="H118">
         <v>55</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>0.46579105176666147</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>0.51633254648292326</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>20160517</v>
       </c>
@@ -9548,16 +9906,19 @@
         <v>10</v>
       </c>
       <c r="G119">
+        <v>61.2</v>
+      </c>
+      <c r="H119">
         <v>60</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>0.41518720889490912</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>0.46023784274678819</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>20160517</v>
       </c>
@@ -9577,16 +9938,19 @@
         <v>11</v>
       </c>
       <c r="G120">
+        <v>65.2</v>
+      </c>
+      <c r="H120">
         <v>65</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>0.39772300480064499</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>0.44087865381843122</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>20160517</v>
       </c>
@@ -9606,16 +9970,19 @@
         <v>12</v>
       </c>
       <c r="G121">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H121">
         <v>70</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>0.3761967650391862</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>0.41701667074666565</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>20160505</v>
       </c>
@@ -9638,13 +10005,16 @@
         <v>25</v>
       </c>
       <c r="H122">
+        <v>25</v>
+      </c>
+      <c r="I122">
         <v>0.85487634576516991</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>0.96510476580602278</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>20160505</v>
       </c>
@@ -9664,16 +10034,19 @@
         <v>2</v>
       </c>
       <c r="G123">
+        <v>30.1</v>
+      </c>
+      <c r="H123">
         <v>30</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>0.88578605769416774</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>20160505</v>
       </c>
@@ -9693,16 +10066,19 @@
         <v>3</v>
       </c>
       <c r="G124">
+        <v>36</v>
+      </c>
+      <c r="H124">
         <v>35</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>0.8434293414402747</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>0.95218177585211283</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>20160505</v>
       </c>
@@ -9722,16 +10098,19 @@
         <v>4</v>
       </c>
       <c r="G125">
+        <v>41.2</v>
+      </c>
+      <c r="H125">
         <v>40</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>0.87217000941886724</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>0.9846282878839332</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>20160505</v>
       </c>
@@ -9751,16 +10130,19 @@
         <v>5</v>
       </c>
       <c r="G126">
+        <v>43.9</v>
+      </c>
+      <c r="H126">
         <v>43</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>0.86184977820673947</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>0.97297735804316232</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>20160505</v>
       </c>
@@ -9780,16 +10162,19 @@
         <v>6</v>
       </c>
       <c r="G127">
+        <v>46.3</v>
+      </c>
+      <c r="H127">
         <v>45</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>0.86286949480806674</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>0.97412855769512086</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>20160505</v>
       </c>
@@ -9809,16 +10194,19 @@
         <v>7</v>
       </c>
       <c r="G128">
+        <v>48.2</v>
+      </c>
+      <c r="H128">
         <v>48</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>0.83010103727034268</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>0.93713490978986347</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>20160505</v>
       </c>
@@ -9838,16 +10226,19 @@
         <v>8</v>
       </c>
       <c r="G129">
+        <v>50.3</v>
+      </c>
+      <c r="H129">
         <v>50</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>0.85767674342502476</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>0.9682662489153242</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>20160505</v>
       </c>
@@ -9867,16 +10258,19 @@
         <v>9</v>
       </c>
       <c r="G130">
+        <v>55.1</v>
+      </c>
+      <c r="H130">
         <v>55</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>0.86381916388807489</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>0.97520067784395259</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>20160505</v>
       </c>
@@ -9896,16 +10290,19 @@
         <v>10</v>
       </c>
       <c r="G131">
+        <v>61.2</v>
+      </c>
+      <c r="H131">
         <v>60</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>0.82863359751346266</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>0.93547825721091005</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>20160505</v>
       </c>
@@ -9925,16 +10322,19 @@
         <v>11</v>
       </c>
       <c r="G132">
+        <v>65.2</v>
+      </c>
+      <c r="H132">
         <v>65</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>0.8314011342345311</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>0.93860264226645351</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>20160505</v>
       </c>
@@ -9954,16 +10354,19 @@
         <v>12</v>
       </c>
       <c r="G133">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H133">
         <v>70</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>0.83881032771419528</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>0.94696718290841331</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>20160505</v>
       </c>
@@ -9986,13 +10389,16 @@
         <v>25</v>
       </c>
       <c r="H134">
+        <v>25</v>
+      </c>
+      <c r="I134">
         <v>0.80787686914269308</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>20160505</v>
       </c>
@@ -10012,16 +10418,19 @@
         <v>2</v>
       </c>
       <c r="G135">
+        <v>30.1</v>
+      </c>
+      <c r="H135">
         <v>30</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>0.80283020020360463</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>0.99375317064784408</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>20160505</v>
       </c>
@@ -10041,16 +10450,19 @@
         <v>3</v>
       </c>
       <c r="G136">
+        <v>36</v>
+      </c>
+      <c r="H136">
         <v>35</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>0.72059316068534784</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>0.89195914403395482</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>20160505</v>
       </c>
@@ -10070,16 +10482,19 @@
         <v>4</v>
       </c>
       <c r="G137">
+        <v>41.2</v>
+      </c>
+      <c r="H137">
         <v>40</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>0.70194314767099542</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>0.86887392681001874</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>20160505</v>
       </c>
@@ -10099,16 +10514,19 @@
         <v>5</v>
       </c>
       <c r="G138">
+        <v>43.9</v>
+      </c>
+      <c r="H138">
         <v>43</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>0.6528356618045289</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>0.80808807225451129</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>20160505</v>
       </c>
@@ -10128,16 +10546,19 @@
         <v>6</v>
       </c>
       <c r="G139">
+        <v>46.3</v>
+      </c>
+      <c r="H139">
         <v>45</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>0.5831983472438298</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>0.72189014133145213</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>20160505</v>
       </c>
@@ -10157,16 +10578,19 @@
         <v>7</v>
       </c>
       <c r="G140">
+        <v>48.2</v>
+      </c>
+      <c r="H140">
         <v>48</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>0.54051973205820958</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>0.66906202257257485</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>20160505</v>
       </c>
@@ -10186,16 +10610,19 @@
         <v>8</v>
       </c>
       <c r="G141">
+        <v>50.3</v>
+      </c>
+      <c r="H141">
         <v>50</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>0.4542219532458292</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>0.56224156253890867</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>20160505</v>
       </c>
@@ -10215,16 +10642,19 @@
         <v>9</v>
       </c>
       <c r="G142">
+        <v>55.1</v>
+      </c>
+      <c r="H142">
         <v>55</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>0.43831840053880522</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>0.54255594791808082</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>20160505</v>
       </c>
@@ -10244,16 +10674,19 @@
         <v>10</v>
       </c>
       <c r="G143">
+        <v>61.2</v>
+      </c>
+      <c r="H143">
         <v>60</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>0.37552740030827758</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>0.46483246971383357</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>20160505</v>
       </c>
@@ -10273,16 +10706,19 @@
         <v>11</v>
       </c>
       <c r="G144">
+        <v>65.2</v>
+      </c>
+      <c r="H144">
         <v>65</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>0.319084453526013</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>0.39496669073422125</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>20160505</v>
       </c>
@@ -10302,16 +10738,19 @@
         <v>12</v>
       </c>
       <c r="G145">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H145">
         <v>70</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>0.2877233333989157</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>0.35614750760749397</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>20160510</v>
       </c>
@@ -10334,13 +10773,16 @@
         <v>25</v>
       </c>
       <c r="H146">
+        <v>25</v>
+      </c>
+      <c r="I146">
         <v>0.86301322106884382</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>0.95792392900936663</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>20160510</v>
       </c>
@@ -10360,16 +10802,19 @@
         <v>2</v>
       </c>
       <c r="G147">
+        <v>30.1</v>
+      </c>
+      <c r="H147">
         <v>30</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>0.89084350462621675</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>0.98881487473289309</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>20160510</v>
       </c>
@@ -10389,16 +10834,19 @@
         <v>3</v>
       </c>
       <c r="G148">
+        <v>36</v>
+      </c>
+      <c r="H148">
         <v>35</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>0.89002204270359819</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>0.98790307174629255</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>20160510</v>
       </c>
@@ -10418,16 +10866,19 @@
         <v>4</v>
       </c>
       <c r="G149">
+        <v>41.2</v>
+      </c>
+      <c r="H149">
         <v>40</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>0.8901497548486178</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>0.98804482915713254</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>20160510</v>
       </c>
@@ -10447,16 +10898,19 @@
         <v>5</v>
       </c>
       <c r="G150">
+        <v>43.9</v>
+      </c>
+      <c r="H150">
         <v>43</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>0.87767402449404852</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>0.97419706837345721</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>20160510</v>
       </c>
@@ -10476,16 +10930,19 @@
         <v>6</v>
       </c>
       <c r="G151">
+        <v>46.3</v>
+      </c>
+      <c r="H151">
         <v>45</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>0.90092041229341213</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>20160510</v>
       </c>
@@ -10505,16 +10962,19 @@
         <v>7</v>
       </c>
       <c r="G152">
+        <v>48.2</v>
+      </c>
+      <c r="H152">
         <v>48</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>0.87932327368207075</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>0.97602769532509204</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>20160510</v>
       </c>
@@ -10534,16 +10994,19 @@
         <v>8</v>
       </c>
       <c r="G153">
+        <v>50.3</v>
+      </c>
+      <c r="H153">
         <v>50</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>0.87597090217325768</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>0.97230664353953067</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>20160510</v>
       </c>
@@ -10563,16 +11026,19 @@
         <v>9</v>
       </c>
       <c r="G154">
+        <v>55.1</v>
+      </c>
+      <c r="H154">
         <v>55</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>0.89712417601250127</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>0.99578626898768219</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>20160510</v>
       </c>
@@ -10592,16 +11058,19 @@
         <v>10</v>
       </c>
       <c r="G155">
+        <v>61.2</v>
+      </c>
+      <c r="H155">
         <v>60</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>0.86476379995804364</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>0.95986702949339664</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>20160510</v>
       </c>
@@ -10621,16 +11090,19 @@
         <v>11</v>
       </c>
       <c r="G156">
+        <v>65.2</v>
+      </c>
+      <c r="H156">
         <v>65</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>0.8263781205216878</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>0.91725984809028016</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>20160510</v>
       </c>
@@ -10650,16 +11122,19 @@
         <v>12</v>
       </c>
       <c r="G157">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H157">
         <v>70</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>0.83618777420744295</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>0.92814832786263146</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>20160510</v>
       </c>
@@ -10682,13 +11157,16 @@
         <v>25</v>
       </c>
       <c r="H158">
+        <v>25</v>
+      </c>
+      <c r="I158">
         <v>0.8004310675497428</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>20160510</v>
       </c>
@@ -10708,16 +11186,19 @@
         <v>2</v>
       </c>
       <c r="G159">
+        <v>30.1</v>
+      </c>
+      <c r="H159">
         <v>30</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>0.73191704677241043</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>0.9144035963183369</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>20160510</v>
       </c>
@@ -10737,16 +11218,19 @@
         <v>3</v>
       </c>
       <c r="G160">
+        <v>36</v>
+      </c>
+      <c r="H160">
         <v>35</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>0.78281804090396356</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>0.97799557343557919</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>20160510</v>
       </c>
@@ -10766,16 +11250,19 @@
         <v>4</v>
       </c>
       <c r="G161">
+        <v>41.2</v>
+      </c>
+      <c r="H161">
         <v>40</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>0.71398150722084563</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>0.89199624573102321</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>20160510</v>
       </c>
@@ -10795,16 +11282,19 @@
         <v>5</v>
       </c>
       <c r="G162">
+        <v>43.9</v>
+      </c>
+      <c r="H162">
         <v>43</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>0.63147206482715923</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>0.78891498647123215</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>20160510</v>
       </c>
@@ -10824,16 +11314,19 @@
         <v>6</v>
       </c>
       <c r="G163">
+        <v>46.3</v>
+      </c>
+      <c r="H163">
         <v>45</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>0.5693688032238341</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>0.71132771616020596</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>20160510</v>
       </c>
@@ -10853,16 +11346,19 @@
         <v>7</v>
       </c>
       <c r="G164">
+        <v>48.2</v>
+      </c>
+      <c r="H164">
         <v>48</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>0.53908339968150165</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>0.67349134926974874</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>20160510</v>
       </c>
@@ -10882,16 +11378,19 @@
         <v>8</v>
       </c>
       <c r="G165">
+        <v>50.3</v>
+      </c>
+      <c r="H165">
         <v>50</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>0.51568093176837027</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>0.64425401845902652</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>20160510</v>
       </c>
@@ -10911,16 +11410,19 @@
         <v>9</v>
       </c>
       <c r="G166">
+        <v>55.1</v>
+      </c>
+      <c r="H166">
         <v>55</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>0.42841672978520307</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>0.53523251052293652</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>20160510</v>
       </c>
@@ -10940,16 +11442,19 @@
         <v>10</v>
       </c>
       <c r="G167">
+        <v>61.2</v>
+      </c>
+      <c r="H167">
         <v>60</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>0.36070752784537591</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>0.4506415885999574</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>20160510</v>
       </c>
@@ -10969,16 +11474,19 @@
         <v>11</v>
       </c>
       <c r="G168">
+        <v>65.2</v>
+      </c>
+      <c r="H168">
         <v>65</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>0.33939374285291096</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>0.4240137053798444</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>20160510</v>
       </c>
@@ -10998,16 +11506,19 @@
         <v>12</v>
       </c>
       <c r="G169">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H169">
         <v>70</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>0.28668926520078564</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>0.35816858793148898</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>20160519</v>
       </c>
@@ -11030,13 +11541,16 @@
         <v>25</v>
       </c>
       <c r="H170">
+        <v>25</v>
+      </c>
+      <c r="I170">
         <v>0.79795503110402211</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>0.99621052923927933</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>20160519</v>
       </c>
@@ -11056,16 +11570,19 @@
         <v>2</v>
       </c>
       <c r="G171">
+        <v>30.1</v>
+      </c>
+      <c r="H171">
         <v>30</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>0.80099036065534468</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>20160519</v>
       </c>
@@ -11085,16 +11602,19 @@
         <v>3</v>
       </c>
       <c r="G172">
+        <v>36</v>
+      </c>
+      <c r="H172">
         <v>35</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>0.78963354078695325</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>0.9858215274162605</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>20160519</v>
       </c>
@@ -11114,16 +11634,19 @@
         <v>4</v>
       </c>
       <c r="G173">
+        <v>41.2</v>
+      </c>
+      <c r="H173">
         <v>40</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>0.78215165955384647</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>0.97648073931116353</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>20160519</v>
       </c>
@@ -11143,16 +11666,19 @@
         <v>5</v>
       </c>
       <c r="G174">
+        <v>43.9</v>
+      </c>
+      <c r="H174">
         <v>43</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>0.77909893620949633</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>0.97266955319170445</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>20160519</v>
       </c>
@@ -11172,16 +11698,19 @@
         <v>6</v>
       </c>
       <c r="G175">
+        <v>46.3</v>
+      </c>
+      <c r="H175">
         <v>45</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>0.77338822096199078</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>0.96553998518687456</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>20160519</v>
       </c>
@@ -11201,16 +11730,19 @@
         <v>7</v>
       </c>
       <c r="G176">
+        <v>48.2</v>
+      </c>
+      <c r="H176">
         <v>48</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>0.78393050842396816</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>0.97870155114298918</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>20160519</v>
       </c>
@@ -11230,16 +11762,19 @@
         <v>8</v>
       </c>
       <c r="G177">
+        <v>50.3</v>
+      </c>
+      <c r="H177">
         <v>50</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>0.78343772363256559</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>0.97808633176506887</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>20160519</v>
       </c>
@@ -11259,16 +11794,19 @@
         <v>9</v>
       </c>
       <c r="G178">
+        <v>55.1</v>
+      </c>
+      <c r="H178">
         <v>55</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>0.74129823229417402</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>0.92547709523953259</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>20160519</v>
       </c>
@@ -11288,16 +11826,19 @@
         <v>10</v>
       </c>
       <c r="G179">
+        <v>61.2</v>
+      </c>
+      <c r="H179">
         <v>60</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>0.71193437284334671</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>0.88881765351191588</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>20160519</v>
       </c>
@@ -11317,16 +11858,19 @@
         <v>11</v>
       </c>
       <c r="G180">
+        <v>65.2</v>
+      </c>
+      <c r="H180">
         <v>65</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>0.73963097839474157</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>0.92339560464822468</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>20160519</v>
       </c>
@@ -11346,16 +11890,19 @@
         <v>12</v>
       </c>
       <c r="G181">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H181">
         <v>70</v>
       </c>
-      <c r="H181">
+      <c r="I181">
         <v>0.70654423918647957</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>0.88208831702844426</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>20160519</v>
       </c>
@@ -11378,13 +11925,16 @@
         <v>25</v>
       </c>
       <c r="H182">
+        <v>25</v>
+      </c>
+      <c r="I182">
         <v>0.77677047495520579</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>20160519</v>
       </c>
@@ -11404,16 +11954,19 @@
         <v>2</v>
       </c>
       <c r="G183">
+        <v>30.1</v>
+      </c>
+      <c r="H183">
         <v>30</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>0.75061277477990285</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>0.96632505866445118</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>20160519</v>
       </c>
@@ -11433,16 +11986,19 @@
         <v>3</v>
       </c>
       <c r="G184">
+        <v>36</v>
+      </c>
+      <c r="H184">
         <v>35</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>0.70748333232540184</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>0.91080100896754657</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>20160519</v>
       </c>
@@ -11462,16 +12018,19 @@
         <v>4</v>
       </c>
       <c r="G185">
+        <v>41.2</v>
+      </c>
+      <c r="H185">
         <v>40</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>0.67011365325408134</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>0.86269197254533259</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>20160519</v>
       </c>
@@ -11491,16 +12050,19 @@
         <v>5</v>
       </c>
       <c r="G186">
+        <v>43.9</v>
+      </c>
+      <c r="H186">
         <v>43</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>0.60072965191253813</v>
       </c>
-      <c r="I186">
+      <c r="J186">
         <v>0.77336828739169128</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>20160519</v>
       </c>
@@ -11520,16 +12082,19 @@
         <v>6</v>
       </c>
       <c r="G187">
+        <v>46.3</v>
+      </c>
+      <c r="H187">
         <v>45</v>
       </c>
-      <c r="H187">
+      <c r="I187">
         <v>0.54162089699093185</v>
       </c>
-      <c r="I187">
+      <c r="J187">
         <v>0.69727276519124348</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>20160519</v>
       </c>
@@ -11549,16 +12114,19 @@
         <v>7</v>
       </c>
       <c r="G188">
+        <v>48.2</v>
+      </c>
+      <c r="H188">
         <v>48</v>
       </c>
-      <c r="H188">
+      <c r="I188">
         <v>0.47367943948364272</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>0.60980618439566525</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>20160519</v>
       </c>
@@ -11578,16 +12146,19 @@
         <v>8</v>
       </c>
       <c r="G189">
+        <v>50.3</v>
+      </c>
+      <c r="H189">
         <v>50</v>
       </c>
-      <c r="H189">
+      <c r="I189">
         <v>0.45954782855286952</v>
       </c>
-      <c r="I189">
+      <c r="J189">
         <v>0.59161340881213387</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>20160519</v>
       </c>
@@ -11607,16 +12178,19 @@
         <v>9</v>
       </c>
       <c r="G190">
+        <v>55.1</v>
+      </c>
+      <c r="H190">
         <v>55</v>
       </c>
-      <c r="H190">
+      <c r="I190">
         <v>0.40897310944635262</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>0.52650444710831334</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>20160519</v>
       </c>
@@ -11636,16 +12210,19 @@
         <v>10</v>
       </c>
       <c r="G191">
+        <v>61.2</v>
+      </c>
+      <c r="H191">
         <v>60</v>
       </c>
-      <c r="H191">
+      <c r="I191">
         <v>0.31483532631220701</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>0.40531319928240411</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>20160519</v>
       </c>
@@ -11665,16 +12242,19 @@
         <v>11</v>
       </c>
       <c r="G192">
+        <v>65.2</v>
+      </c>
+      <c r="H192">
         <v>65</v>
       </c>
-      <c r="H192">
+      <c r="I192">
         <v>0.21496577511012385</v>
       </c>
-      <c r="I192">
+      <c r="J192">
         <v>0.27674297883492588</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:10">
       <c r="A193">
         <v>20160519</v>
       </c>
@@ -11694,12 +12274,15 @@
         <v>12</v>
       </c>
       <c r="G193">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H193">
         <v>70</v>
       </c>
-      <c r="H193">
+      <c r="I193">
         <v>0.20236522213987565</v>
       </c>
-      <c r="I193">
+      <c r="J193">
         <v>0.26052125906503526</v>
       </c>
     </row>
